--- a/data/legalization.xlsx
+++ b/data/legalization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bathy\Desktop\Nikita\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bathy\Documents\ecm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E25D125-E975-4791-877E-A70C4B1F00F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA272BA-164F-40F3-91F3-0371A45B6BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D3526725-EDA2-0946-9584-1600623FA0AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3526725-EDA2-0946-9584-1600623FA0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="58">
   <si>
     <t>Alabama</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>pdmp</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B6B83-F0ED-994C-9059-7259DEDEF353}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScale="35" workbookViewId="0">
-      <selection sqref="A1:E52"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -589,7 +592,7 @@
     <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -605,8 +608,11 @@
       <c r="E1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,8 +628,11 @@
       <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -639,8 +648,11 @@
       <c r="E3" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -656,8 +668,11 @@
       <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -673,8 +688,11 @@
       <c r="E5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -690,8 +708,11 @@
       <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -707,8 +728,11 @@
       <c r="E7" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -724,8 +748,11 @@
       <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -741,8 +768,11 @@
       <c r="E9" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -758,8 +788,11 @@
       <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -775,8 +808,11 @@
       <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -792,8 +828,11 @@
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -809,8 +848,11 @@
       <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -826,8 +868,11 @@
       <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -843,8 +888,11 @@
       <c r="E15" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -860,8 +908,11 @@
       <c r="E16" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -877,8 +928,11 @@
       <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -894,8 +948,11 @@
       <c r="E18" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -911,8 +968,11 @@
       <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -928,8 +988,11 @@
       <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -945,8 +1008,11 @@
       <c r="E21" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -962,8 +1028,11 @@
       <c r="E22" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -979,8 +1048,11 @@
       <c r="E23" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -996,8 +1068,11 @@
       <c r="E24" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -1013,8 +1088,11 @@
       <c r="E25" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
@@ -1030,8 +1108,11 @@
       <c r="E26" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -1047,8 +1128,11 @@
       <c r="E27" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1064,8 +1148,11 @@
       <c r="E28" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1081,8 +1168,11 @@
       <c r="E29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -1098,8 +1188,11 @@
       <c r="E30" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -1115,8 +1208,11 @@
       <c r="E31" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
@@ -1132,8 +1228,11 @@
       <c r="E32" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
@@ -1149,8 +1248,11 @@
       <c r="E33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -1166,8 +1268,11 @@
       <c r="E34" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -1183,8 +1288,11 @@
       <c r="E35" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -1200,8 +1308,11 @@
       <c r="E36" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
@@ -1217,8 +1328,11 @@
       <c r="E37" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -1234,8 +1348,11 @@
       <c r="E38" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -1251,8 +1368,11 @@
       <c r="E39" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
@@ -1268,8 +1388,11 @@
       <c r="E40" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -1285,8 +1408,11 @@
       <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -1302,8 +1428,11 @@
       <c r="E42" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -1319,8 +1448,11 @@
       <c r="E43" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
@@ -1336,8 +1468,11 @@
       <c r="E44" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -1353,8 +1488,11 @@
       <c r="E45" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -1370,8 +1508,11 @@
       <c r="E46" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
@@ -1387,8 +1528,11 @@
       <c r="E47" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
@@ -1404,8 +1548,11 @@
       <c r="E48" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>37</v>
       </c>
@@ -1421,8 +1568,11 @@
       <c r="E49" s="1">
         <v>2014</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -1438,8 +1588,11 @@
       <c r="E50" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
@@ -1455,8 +1608,11 @@
       <c r="E51" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>39</v>
       </c>
@@ -1471,6 +1627,9 @@
       </c>
       <c r="E52" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="F52">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F92398-F77A-4345-A12D-E5AEC2897F76}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G30" workbookViewId="0">
+    <sheetView topLeftCell="G30" workbookViewId="0">
       <selection sqref="A1:Z52"/>
     </sheetView>
   </sheetViews>
@@ -1580,95 +1739,95 @@
         <v>55</v>
       </c>
       <c r="D2">
-        <f>IF(D$1&gt;=$B2,1,0)+IF(D$1&gt;=$C2,1,0)</f>
+        <f t="shared" ref="D2:M11" si="0">IF(D$1&gt;=$B2,1,0)+IF(D$1&gt;=$C2,1,0)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(E$1&gt;=$B2,1,0)+IF(E$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IF(F$1&gt;=$B2,1,0)+IF(F$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>IF(G$1&gt;=$B2,1,0)+IF(G$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IF(H$1&gt;=$B2,1,0)+IF(H$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF(I$1&gt;=$B2,1,0)+IF(I$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>IF(J$1&gt;=$B2,1,0)+IF(J$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
-        <f>IF(K$1&gt;=$B2,1,0)+IF(K$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L2">
-        <f>IF(L$1&gt;=$B2,1,0)+IF(L$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>IF(M$1&gt;=$B2,1,0)+IF(M$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IF(N$1&gt;=$B2,1,0)+IF(N$1&gt;=$C2,1,0)</f>
+        <f t="shared" ref="N2:Z11" si="1">IF(N$1&gt;=$B2,1,0)+IF(N$1&gt;=$C2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>IF(O$1&gt;=$B2,1,0)+IF(O$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>IF(P$1&gt;=$B2,1,0)+IF(P$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>IF(Q$1&gt;=$B2,1,0)+IF(Q$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>IF(R$1&gt;=$B2,1,0)+IF(R$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>IF(S$1&gt;=$B2,1,0)+IF(S$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>IF(T$1&gt;=$B2,1,0)+IF(T$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>IF(U$1&gt;=$B2,1,0)+IF(U$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V2">
-        <f>IF(V$1&gt;=$B2,1,0)+IF(V$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>IF(W$1&gt;=$B2,1,0)+IF(W$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>IF(X$1&gt;=$B2,1,0)+IF(X$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>IF(Y$1&gt;=$B2,1,0)+IF(Y$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>IF(Z$1&gt;=$B2,1,0)+IF(Z$1&gt;=$C2,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,95 +1842,95 @@
         <v>2015</v>
       </c>
       <c r="D3">
-        <f>IF(D$1&gt;=$B3,1,0)+IF(D$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>IF(E$1&gt;=$B3,1,0)+IF(E$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>IF(F$1&gt;=$B3,1,0)+IF(F$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>IF(G$1&gt;=$B3,1,0)+IF(G$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3">
-        <f>IF(H$1&gt;=$B3,1,0)+IF(H$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I3">
-        <f>IF(I$1&gt;=$B3,1,0)+IF(I$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3">
-        <f>IF(J$1&gt;=$B3,1,0)+IF(J$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K3">
-        <f>IF(K$1&gt;=$B3,1,0)+IF(K$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L3">
-        <f>IF(L$1&gt;=$B3,1,0)+IF(L$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>IF(M$1&gt;=$B3,1,0)+IF(M$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N3">
-        <f>IF(N$1&gt;=$B3,1,0)+IF(N$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O3">
-        <f>IF(O$1&gt;=$B3,1,0)+IF(O$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P3">
-        <f>IF(P$1&gt;=$B3,1,0)+IF(P$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q3">
-        <f>IF(Q$1&gt;=$B3,1,0)+IF(Q$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R3">
-        <f>IF(R$1&gt;=$B3,1,0)+IF(R$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S3">
-        <f>IF(S$1&gt;=$B3,1,0)+IF(S$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T3">
-        <f>IF(T$1&gt;=$B3,1,0)+IF(T$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U3">
-        <f>IF(U$1&gt;=$B3,1,0)+IF(U$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V3">
-        <f>IF(V$1&gt;=$B3,1,0)+IF(V$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W3">
-        <f>IF(W$1&gt;=$B3,1,0)+IF(W$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="X3">
-        <f>IF(X$1&gt;=$B3,1,0)+IF(X$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Y3">
-        <f>IF(Y$1&gt;=$B3,1,0)+IF(Y$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z3">
-        <f>IF(Z$1&gt;=$B3,1,0)+IF(Z$1&gt;=$C3,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1786,95 +1945,95 @@
         <v>55</v>
       </c>
       <c r="D4">
-        <f>IF(D$1&gt;=$B4,1,0)+IF(D$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>IF(E$1&gt;=$B4,1,0)+IF(E$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>IF(F$1&gt;=$B4,1,0)+IF(F$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>IF(G$1&gt;=$B4,1,0)+IF(G$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>IF(H$1&gt;=$B4,1,0)+IF(H$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>IF(I$1&gt;=$B4,1,0)+IF(I$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>IF(J$1&gt;=$B4,1,0)+IF(J$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f>IF(K$1&gt;=$B4,1,0)+IF(K$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f>IF(L$1&gt;=$B4,1,0)+IF(L$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>IF(M$1&gt;=$B4,1,0)+IF(M$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>IF(N$1&gt;=$B4,1,0)+IF(N$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>IF(O$1&gt;=$B4,1,0)+IF(O$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f>IF(P$1&gt;=$B4,1,0)+IF(P$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>IF(Q$1&gt;=$B4,1,0)+IF(Q$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>IF(R$1&gt;=$B4,1,0)+IF(R$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S4">
-        <f>IF(S$1&gt;=$B4,1,0)+IF(S$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T4">
-        <f>IF(T$1&gt;=$B4,1,0)+IF(T$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U4">
-        <f>IF(U$1&gt;=$B4,1,0)+IF(U$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V4">
-        <f>IF(V$1&gt;=$B4,1,0)+IF(V$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W4">
-        <f>IF(W$1&gt;=$B4,1,0)+IF(W$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X4">
-        <f>IF(X$1&gt;=$B4,1,0)+IF(X$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y4">
-        <f>IF(Y$1&gt;=$B4,1,0)+IF(Y$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z4">
-        <f>IF(Z$1&gt;=$B4,1,0)+IF(Z$1&gt;=$C4,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1889,95 +2048,95 @@
         <v>55</v>
       </c>
       <c r="D5">
-        <f>IF(D$1&gt;=$B5,1,0)+IF(D$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>IF(E$1&gt;=$B5,1,0)+IF(E$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>IF(F$1&gt;=$B5,1,0)+IF(F$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>IF(G$1&gt;=$B5,1,0)+IF(G$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f>IF(H$1&gt;=$B5,1,0)+IF(H$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IF(I$1&gt;=$B5,1,0)+IF(I$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>IF(J$1&gt;=$B5,1,0)+IF(J$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f>IF(K$1&gt;=$B5,1,0)+IF(K$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f>IF(L$1&gt;=$B5,1,0)+IF(L$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>IF(M$1&gt;=$B5,1,0)+IF(M$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>IF(N$1&gt;=$B5,1,0)+IF(N$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>IF(O$1&gt;=$B5,1,0)+IF(O$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>IF(P$1&gt;=$B5,1,0)+IF(P$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>IF(Q$1&gt;=$B5,1,0)+IF(Q$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>IF(R$1&gt;=$B5,1,0)+IF(R$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>IF(S$1&gt;=$B5,1,0)+IF(S$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>IF(T$1&gt;=$B5,1,0)+IF(T$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>IF(U$1&gt;=$B5,1,0)+IF(U$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>IF(V$1&gt;=$B5,1,0)+IF(V$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>IF(W$1&gt;=$B5,1,0)+IF(W$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>IF(X$1&gt;=$B5,1,0)+IF(X$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>IF(Y$1&gt;=$B5,1,0)+IF(Y$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z5">
-        <f>IF(Z$1&gt;=$B5,1,0)+IF(Z$1&gt;=$C5,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1992,95 +2151,95 @@
         <v>2016</v>
       </c>
       <c r="D6">
-        <f>IF(D$1&gt;=$B6,1,0)+IF(D$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>IF(E$1&gt;=$B6,1,0)+IF(E$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6">
-        <f>IF(F$1&gt;=$B6,1,0)+IF(F$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6">
-        <f>IF(G$1&gt;=$B6,1,0)+IF(G$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6">
-        <f>IF(H$1&gt;=$B6,1,0)+IF(H$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I6">
-        <f>IF(I$1&gt;=$B6,1,0)+IF(I$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6">
-        <f>IF(J$1&gt;=$B6,1,0)+IF(J$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K6">
-        <f>IF(K$1&gt;=$B6,1,0)+IF(K$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L6">
-        <f>IF(L$1&gt;=$B6,1,0)+IF(L$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M6">
-        <f>IF(M$1&gt;=$B6,1,0)+IF(M$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N6">
-        <f>IF(N$1&gt;=$B6,1,0)+IF(N$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>IF(O$1&gt;=$B6,1,0)+IF(O$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>IF(P$1&gt;=$B6,1,0)+IF(P$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q6">
-        <f>IF(Q$1&gt;=$B6,1,0)+IF(Q$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R6">
-        <f>IF(R$1&gt;=$B6,1,0)+IF(R$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S6">
-        <f>IF(S$1&gt;=$B6,1,0)+IF(S$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T6">
-        <f>IF(T$1&gt;=$B6,1,0)+IF(T$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U6">
-        <f>IF(U$1&gt;=$B6,1,0)+IF(U$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>IF(V$1&gt;=$B6,1,0)+IF(V$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W6">
-        <f>IF(W$1&gt;=$B6,1,0)+IF(W$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X6">
-        <f>IF(X$1&gt;=$B6,1,0)+IF(X$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Y6">
-        <f>IF(Y$1&gt;=$B6,1,0)+IF(Y$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z6">
-        <f>IF(Z$1&gt;=$B6,1,0)+IF(Z$1&gt;=$C6,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2095,95 +2254,95 @@
         <v>2012</v>
       </c>
       <c r="D7">
-        <f>IF(D$1&gt;=$B7,1,0)+IF(D$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>IF(E$1&gt;=$B7,1,0)+IF(E$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>IF(F$1&gt;=$B7,1,0)+IF(F$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>IF(G$1&gt;=$B7,1,0)+IF(G$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>IF(H$1&gt;=$B7,1,0)+IF(H$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7">
-        <f>IF(I$1&gt;=$B7,1,0)+IF(I$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7">
-        <f>IF(J$1&gt;=$B7,1,0)+IF(J$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K7">
-        <f>IF(K$1&gt;=$B7,1,0)+IF(K$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L7">
-        <f>IF(L$1&gt;=$B7,1,0)+IF(L$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M7">
-        <f>IF(M$1&gt;=$B7,1,0)+IF(M$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N7">
-        <f>IF(N$1&gt;=$B7,1,0)+IF(N$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O7">
-        <f>IF(O$1&gt;=$B7,1,0)+IF(O$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>IF(P$1&gt;=$B7,1,0)+IF(P$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>IF(Q$1&gt;=$B7,1,0)+IF(Q$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>IF(R$1&gt;=$B7,1,0)+IF(R$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>IF(S$1&gt;=$B7,1,0)+IF(S$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T7">
-        <f>IF(T$1&gt;=$B7,1,0)+IF(T$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="U7">
-        <f>IF(U$1&gt;=$B7,1,0)+IF(U$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="V7">
-        <f>IF(V$1&gt;=$B7,1,0)+IF(V$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="W7">
-        <f>IF(W$1&gt;=$B7,1,0)+IF(W$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="X7">
-        <f>IF(X$1&gt;=$B7,1,0)+IF(X$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Y7">
-        <f>IF(Y$1&gt;=$B7,1,0)+IF(Y$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z7">
-        <f>IF(Z$1&gt;=$B7,1,0)+IF(Z$1&gt;=$C7,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2198,95 +2357,95 @@
         <v>55</v>
       </c>
       <c r="D8">
-        <f>IF(D$1&gt;=$B8,1,0)+IF(D$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>IF(E$1&gt;=$B8,1,0)+IF(E$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>IF(F$1&gt;=$B8,1,0)+IF(F$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>IF(G$1&gt;=$B8,1,0)+IF(G$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>IF(H$1&gt;=$B8,1,0)+IF(H$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(I$1&gt;=$B8,1,0)+IF(I$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f>IF(J$1&gt;=$B8,1,0)+IF(J$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f>IF(K$1&gt;=$B8,1,0)+IF(K$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f>IF(L$1&gt;=$B8,1,0)+IF(L$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>IF(M$1&gt;=$B8,1,0)+IF(M$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IF(N$1&gt;=$B8,1,0)+IF(N$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>IF(O$1&gt;=$B8,1,0)+IF(O$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>IF(P$1&gt;=$B8,1,0)+IF(P$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>IF(Q$1&gt;=$B8,1,0)+IF(Q$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>IF(R$1&gt;=$B8,1,0)+IF(R$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>IF(S$1&gt;=$B8,1,0)+IF(S$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T8">
-        <f>IF(T$1&gt;=$B8,1,0)+IF(T$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U8">
-        <f>IF(U$1&gt;=$B8,1,0)+IF(U$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V8">
-        <f>IF(V$1&gt;=$B8,1,0)+IF(V$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W8">
-        <f>IF(W$1&gt;=$B8,1,0)+IF(W$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X8">
-        <f>IF(X$1&gt;=$B8,1,0)+IF(X$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y8">
-        <f>IF(Y$1&gt;=$B8,1,0)+IF(Y$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z8">
-        <f>IF(Z$1&gt;=$B8,1,0)+IF(Z$1&gt;=$C8,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2301,95 +2460,95 @@
         <v>55</v>
       </c>
       <c r="D9">
-        <f>IF(D$1&gt;=$B9,1,0)+IF(D$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>IF(E$1&gt;=$B9,1,0)+IF(E$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>IF(F$1&gt;=$B9,1,0)+IF(F$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>IF(G$1&gt;=$B9,1,0)+IF(G$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f>IF(H$1&gt;=$B9,1,0)+IF(H$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IF(I$1&gt;=$B9,1,0)+IF(I$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>IF(J$1&gt;=$B9,1,0)+IF(J$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f>IF(K$1&gt;=$B9,1,0)+IF(K$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>IF(L$1&gt;=$B9,1,0)+IF(L$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f>IF(M$1&gt;=$B9,1,0)+IF(M$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f>IF(N$1&gt;=$B9,1,0)+IF(N$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f>IF(O$1&gt;=$B9,1,0)+IF(O$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>IF(P$1&gt;=$B9,1,0)+IF(P$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f>IF(Q$1&gt;=$B9,1,0)+IF(Q$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>IF(R$1&gt;=$B9,1,0)+IF(R$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f>IF(S$1&gt;=$B9,1,0)+IF(S$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T9">
-        <f>IF(T$1&gt;=$B9,1,0)+IF(T$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U9">
-        <f>IF(U$1&gt;=$B9,1,0)+IF(U$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V9">
-        <f>IF(V$1&gt;=$B9,1,0)+IF(V$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W9">
-        <f>IF(W$1&gt;=$B9,1,0)+IF(W$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X9">
-        <f>IF(X$1&gt;=$B9,1,0)+IF(X$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y9">
-        <f>IF(Y$1&gt;=$B9,1,0)+IF(Y$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z9">
-        <f>IF(Z$1&gt;=$B9,1,0)+IF(Z$1&gt;=$C9,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2404,95 +2563,95 @@
         <v>2015</v>
       </c>
       <c r="D10">
-        <f>IF(D$1&gt;=$B10,1,0)+IF(D$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>IF(E$1&gt;=$B10,1,0)+IF(E$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>IF(F$1&gt;=$B10,1,0)+IF(F$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>IF(G$1&gt;=$B10,1,0)+IF(G$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>IF(H$1&gt;=$B10,1,0)+IF(H$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IF(I$1&gt;=$B10,1,0)+IF(I$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>IF(J$1&gt;=$B10,1,0)+IF(J$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>IF(K$1&gt;=$B10,1,0)+IF(K$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>IF(L$1&gt;=$B10,1,0)+IF(L$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>IF(M$1&gt;=$B10,1,0)+IF(M$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>IF(N$1&gt;=$B10,1,0)+IF(N$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>IF(O$1&gt;=$B10,1,0)+IF(O$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>IF(P$1&gt;=$B10,1,0)+IF(P$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f>IF(Q$1&gt;=$B10,1,0)+IF(Q$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10">
-        <f>IF(R$1&gt;=$B10,1,0)+IF(R$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S10">
-        <f>IF(S$1&gt;=$B10,1,0)+IF(S$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T10">
-        <f>IF(T$1&gt;=$B10,1,0)+IF(T$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U10">
-        <f>IF(U$1&gt;=$B10,1,0)+IF(U$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V10">
-        <f>IF(V$1&gt;=$B10,1,0)+IF(V$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W10">
-        <f>IF(W$1&gt;=$B10,1,0)+IF(W$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="X10">
-        <f>IF(X$1&gt;=$B10,1,0)+IF(X$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Y10">
-        <f>IF(Y$1&gt;=$B10,1,0)+IF(Y$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="Z10">
-        <f>IF(Z$1&gt;=$B10,1,0)+IF(Z$1&gt;=$C10,1,0)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2507,95 +2666,95 @@
         <v>55</v>
       </c>
       <c r="D11">
-        <f>IF(D$1&gt;=$B11,1,0)+IF(D$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>IF(E$1&gt;=$B11,1,0)+IF(E$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>IF(F$1&gt;=$B11,1,0)+IF(F$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>IF(G$1&gt;=$B11,1,0)+IF(G$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>IF(H$1&gt;=$B11,1,0)+IF(H$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(I$1&gt;=$B11,1,0)+IF(I$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IF(J$1&gt;=$B11,1,0)+IF(J$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>IF(K$1&gt;=$B11,1,0)+IF(K$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>IF(L$1&gt;=$B11,1,0)+IF(L$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>IF(M$1&gt;=$B11,1,0)+IF(M$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IF(N$1&gt;=$B11,1,0)+IF(N$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>IF(O$1&gt;=$B11,1,0)+IF(O$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>IF(P$1&gt;=$B11,1,0)+IF(P$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f>IF(Q$1&gt;=$B11,1,0)+IF(Q$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11">
-        <f>IF(R$1&gt;=$B11,1,0)+IF(R$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>IF(S$1&gt;=$B11,1,0)+IF(S$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11">
-        <f>IF(T$1&gt;=$B11,1,0)+IF(T$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11">
-        <f>IF(U$1&gt;=$B11,1,0)+IF(U$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V11">
-        <f>IF(V$1&gt;=$B11,1,0)+IF(V$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>IF(W$1&gt;=$B11,1,0)+IF(W$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>IF(X$1&gt;=$B11,1,0)+IF(X$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f>IF(Y$1&gt;=$B11,1,0)+IF(Y$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z11">
-        <f>IF(Z$1&gt;=$B11,1,0)+IF(Z$1&gt;=$C11,1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2610,95 +2769,95 @@
         <v>55</v>
       </c>
       <c r="D12">
-        <f>IF(D$1&gt;=$B12,1,0)+IF(D$1&gt;=$C12,1,0)</f>
+        <f t="shared" ref="D12:M21" si="2">IF(D$1&gt;=$B12,1,0)+IF(D$1&gt;=$C12,1,0)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>IF(E$1&gt;=$B12,1,0)+IF(E$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>IF(F$1&gt;=$B12,1,0)+IF(F$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>IF(G$1&gt;=$B12,1,0)+IF(G$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>IF(H$1&gt;=$B12,1,0)+IF(H$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IF(I$1&gt;=$B12,1,0)+IF(I$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>IF(J$1&gt;=$B12,1,0)+IF(J$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>IF(K$1&gt;=$B12,1,0)+IF(K$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>IF(L$1&gt;=$B12,1,0)+IF(L$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>IF(M$1&gt;=$B12,1,0)+IF(M$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>IF(N$1&gt;=$B12,1,0)+IF(N$1&gt;=$C12,1,0)</f>
+        <f t="shared" ref="N12:Z21" si="3">IF(N$1&gt;=$B12,1,0)+IF(N$1&gt;=$C12,1,0)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>IF(O$1&gt;=$B12,1,0)+IF(O$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>IF(P$1&gt;=$B12,1,0)+IF(P$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f>IF(Q$1&gt;=$B12,1,0)+IF(Q$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>IF(R$1&gt;=$B12,1,0)+IF(R$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S12">
-        <f>IF(S$1&gt;=$B12,1,0)+IF(S$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12">
-        <f>IF(T$1&gt;=$B12,1,0)+IF(T$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12">
-        <f>IF(U$1&gt;=$B12,1,0)+IF(U$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V12">
-        <f>IF(V$1&gt;=$B12,1,0)+IF(V$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W12">
-        <f>IF(W$1&gt;=$B12,1,0)+IF(W$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12">
-        <f>IF(X$1&gt;=$B12,1,0)+IF(X$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f>IF(Y$1&gt;=$B12,1,0)+IF(Y$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f>IF(Z$1&gt;=$B12,1,0)+IF(Z$1&gt;=$C12,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2713,95 +2872,95 @@
         <v>55</v>
       </c>
       <c r="D13">
-        <f>IF(D$1&gt;=$B13,1,0)+IF(D$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>IF(E$1&gt;=$B13,1,0)+IF(E$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>IF(F$1&gt;=$B13,1,0)+IF(F$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>IF(G$1&gt;=$B13,1,0)+IF(G$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f>IF(H$1&gt;=$B13,1,0)+IF(H$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I13">
-        <f>IF(I$1&gt;=$B13,1,0)+IF(I$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J13">
-        <f>IF(J$1&gt;=$B13,1,0)+IF(J$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K13">
-        <f>IF(K$1&gt;=$B13,1,0)+IF(K$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L13">
-        <f>IF(L$1&gt;=$B13,1,0)+IF(L$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M13">
-        <f>IF(M$1&gt;=$B13,1,0)+IF(M$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N13">
-        <f>IF(N$1&gt;=$B13,1,0)+IF(N$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O13">
-        <f>IF(O$1&gt;=$B13,1,0)+IF(O$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P13">
-        <f>IF(P$1&gt;=$B13,1,0)+IF(P$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>IF(Q$1&gt;=$B13,1,0)+IF(Q$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R13">
-        <f>IF(R$1&gt;=$B13,1,0)+IF(R$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S13">
-        <f>IF(S$1&gt;=$B13,1,0)+IF(S$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T13">
-        <f>IF(T$1&gt;=$B13,1,0)+IF(T$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U13">
-        <f>IF(U$1&gt;=$B13,1,0)+IF(U$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V13">
-        <f>IF(V$1&gt;=$B13,1,0)+IF(V$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W13">
-        <f>IF(W$1&gt;=$B13,1,0)+IF(W$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X13">
-        <f>IF(X$1&gt;=$B13,1,0)+IF(X$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y13">
-        <f>IF(Y$1&gt;=$B13,1,0)+IF(Y$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z13">
-        <f>IF(Z$1&gt;=$B13,1,0)+IF(Z$1&gt;=$C13,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2816,95 +2975,95 @@
         <v>55</v>
       </c>
       <c r="D14">
-        <f>IF(D$1&gt;=$B14,1,0)+IF(D$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>IF(E$1&gt;=$B14,1,0)+IF(E$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>IF(F$1&gt;=$B14,1,0)+IF(F$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>IF(G$1&gt;=$B14,1,0)+IF(G$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f>IF(H$1&gt;=$B14,1,0)+IF(H$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(I$1&gt;=$B14,1,0)+IF(I$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IF(J$1&gt;=$B14,1,0)+IF(J$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f>IF(K$1&gt;=$B14,1,0)+IF(K$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f>IF(L$1&gt;=$B14,1,0)+IF(L$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>IF(M$1&gt;=$B14,1,0)+IF(M$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IF(N$1&gt;=$B14,1,0)+IF(N$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f>IF(O$1&gt;=$B14,1,0)+IF(O$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>IF(P$1&gt;=$B14,1,0)+IF(P$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f>IF(Q$1&gt;=$B14,1,0)+IF(Q$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R14">
-        <f>IF(R$1&gt;=$B14,1,0)+IF(R$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S14">
-        <f>IF(S$1&gt;=$B14,1,0)+IF(S$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>IF(T$1&gt;=$B14,1,0)+IF(T$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14">
-        <f>IF(U$1&gt;=$B14,1,0)+IF(U$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V14">
-        <f>IF(V$1&gt;=$B14,1,0)+IF(V$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W14">
-        <f>IF(W$1&gt;=$B14,1,0)+IF(W$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14">
-        <f>IF(X$1&gt;=$B14,1,0)+IF(X$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f>IF(Y$1&gt;=$B14,1,0)+IF(Y$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f>IF(Z$1&gt;=$B14,1,0)+IF(Z$1&gt;=$C14,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2919,95 +3078,95 @@
         <v>55</v>
       </c>
       <c r="D15">
-        <f>IF(D$1&gt;=$B15,1,0)+IF(D$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IF(E$1&gt;=$B15,1,0)+IF(E$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>IF(F$1&gt;=$B15,1,0)+IF(F$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>IF(G$1&gt;=$B15,1,0)+IF(G$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f>IF(H$1&gt;=$B15,1,0)+IF(H$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IF(I$1&gt;=$B15,1,0)+IF(I$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IF(J$1&gt;=$B15,1,0)+IF(J$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f>IF(K$1&gt;=$B15,1,0)+IF(K$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>IF(L$1&gt;=$B15,1,0)+IF(L$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>IF(M$1&gt;=$B15,1,0)+IF(M$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15">
-        <f>IF(N$1&gt;=$B15,1,0)+IF(N$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f>IF(O$1&gt;=$B15,1,0)+IF(O$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>IF(P$1&gt;=$B15,1,0)+IF(P$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f>IF(Q$1&gt;=$B15,1,0)+IF(Q$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15">
-        <f>IF(R$1&gt;=$B15,1,0)+IF(R$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>IF(S$1&gt;=$B15,1,0)+IF(S$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T15">
-        <f>IF(T$1&gt;=$B15,1,0)+IF(T$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15">
-        <f>IF(U$1&gt;=$B15,1,0)+IF(U$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V15">
-        <f>IF(V$1&gt;=$B15,1,0)+IF(V$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W15">
-        <f>IF(W$1&gt;=$B15,1,0)+IF(W$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X15">
-        <f>IF(X$1&gt;=$B15,1,0)+IF(X$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y15">
-        <f>IF(Y$1&gt;=$B15,1,0)+IF(Y$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z15">
-        <f>IF(Z$1&gt;=$B15,1,0)+IF(Z$1&gt;=$C15,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3022,95 +3181,95 @@
         <v>55</v>
       </c>
       <c r="D16">
-        <f>IF(D$1&gt;=$B16,1,0)+IF(D$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>IF(E$1&gt;=$B16,1,0)+IF(E$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>IF(F$1&gt;=$B16,1,0)+IF(F$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>IF(G$1&gt;=$B16,1,0)+IF(G$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f>IF(H$1&gt;=$B16,1,0)+IF(H$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IF(I$1&gt;=$B16,1,0)+IF(I$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IF(J$1&gt;=$B16,1,0)+IF(J$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f>IF(K$1&gt;=$B16,1,0)+IF(K$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>IF(L$1&gt;=$B16,1,0)+IF(L$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>IF(M$1&gt;=$B16,1,0)+IF(M$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IF(N$1&gt;=$B16,1,0)+IF(N$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f>IF(O$1&gt;=$B16,1,0)+IF(O$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>IF(P$1&gt;=$B16,1,0)+IF(P$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f>IF(Q$1&gt;=$B16,1,0)+IF(Q$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R16">
-        <f>IF(R$1&gt;=$B16,1,0)+IF(R$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S16">
-        <f>IF(S$1&gt;=$B16,1,0)+IF(S$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16">
-        <f>IF(T$1&gt;=$B16,1,0)+IF(T$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16">
-        <f>IF(U$1&gt;=$B16,1,0)+IF(U$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V16">
-        <f>IF(V$1&gt;=$B16,1,0)+IF(V$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W16">
-        <f>IF(W$1&gt;=$B16,1,0)+IF(W$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16">
-        <f>IF(X$1&gt;=$B16,1,0)+IF(X$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f>IF(Y$1&gt;=$B16,1,0)+IF(Y$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f>IF(Z$1&gt;=$B16,1,0)+IF(Z$1&gt;=$C16,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3125,95 +3284,95 @@
         <v>55</v>
       </c>
       <c r="D17">
-        <f>IF(D$1&gt;=$B17,1,0)+IF(D$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF(E$1&gt;=$B17,1,0)+IF(E$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>IF(F$1&gt;=$B17,1,0)+IF(F$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>IF(G$1&gt;=$B17,1,0)+IF(G$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>IF(H$1&gt;=$B17,1,0)+IF(H$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(I$1&gt;=$B17,1,0)+IF(I$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17">
-        <f>IF(J$1&gt;=$B17,1,0)+IF(J$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f>IF(K$1&gt;=$B17,1,0)+IF(K$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>IF(L$1&gt;=$B17,1,0)+IF(L$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f>IF(M$1&gt;=$B17,1,0)+IF(M$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IF(N$1&gt;=$B17,1,0)+IF(N$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17">
-        <f>IF(O$1&gt;=$B17,1,0)+IF(O$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>IF(P$1&gt;=$B17,1,0)+IF(P$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>IF(Q$1&gt;=$B17,1,0)+IF(Q$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R17">
-        <f>IF(R$1&gt;=$B17,1,0)+IF(R$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S17">
-        <f>IF(S$1&gt;=$B17,1,0)+IF(S$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T17">
-        <f>IF(T$1&gt;=$B17,1,0)+IF(T$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17">
-        <f>IF(U$1&gt;=$B17,1,0)+IF(U$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V17">
-        <f>IF(V$1&gt;=$B17,1,0)+IF(V$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W17">
-        <f>IF(W$1&gt;=$B17,1,0)+IF(W$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f>IF(X$1&gt;=$B17,1,0)+IF(X$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f>IF(Y$1&gt;=$B17,1,0)+IF(Y$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f>IF(Z$1&gt;=$B17,1,0)+IF(Z$1&gt;=$C17,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3228,95 +3387,95 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <f>IF(D$1&gt;=$B18,1,0)+IF(D$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>IF(E$1&gt;=$B18,1,0)+IF(E$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>IF(F$1&gt;=$B18,1,0)+IF(F$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>IF(G$1&gt;=$B18,1,0)+IF(G$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>IF(H$1&gt;=$B18,1,0)+IF(H$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IF(I$1&gt;=$B18,1,0)+IF(I$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IF(J$1&gt;=$B18,1,0)+IF(J$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f>IF(K$1&gt;=$B18,1,0)+IF(K$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>IF(L$1&gt;=$B18,1,0)+IF(L$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>IF(M$1&gt;=$B18,1,0)+IF(M$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IF(N$1&gt;=$B18,1,0)+IF(N$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f>IF(O$1&gt;=$B18,1,0)+IF(O$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>IF(P$1&gt;=$B18,1,0)+IF(P$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>IF(Q$1&gt;=$B18,1,0)+IF(Q$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R18">
-        <f>IF(R$1&gt;=$B18,1,0)+IF(R$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S18">
-        <f>IF(S$1&gt;=$B18,1,0)+IF(S$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T18">
-        <f>IF(T$1&gt;=$B18,1,0)+IF(T$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U18">
-        <f>IF(U$1&gt;=$B18,1,0)+IF(U$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V18">
-        <f>IF(V$1&gt;=$B18,1,0)+IF(V$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W18">
-        <f>IF(W$1&gt;=$B18,1,0)+IF(W$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X18">
-        <f>IF(X$1&gt;=$B18,1,0)+IF(X$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f>IF(Y$1&gt;=$B18,1,0)+IF(Y$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f>IF(Z$1&gt;=$B18,1,0)+IF(Z$1&gt;=$C18,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3331,95 +3490,95 @@
         <v>55</v>
       </c>
       <c r="D19">
-        <f>IF(D$1&gt;=$B19,1,0)+IF(D$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>IF(E$1&gt;=$B19,1,0)+IF(E$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>IF(F$1&gt;=$B19,1,0)+IF(F$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>IF(G$1&gt;=$B19,1,0)+IF(G$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>IF(H$1&gt;=$B19,1,0)+IF(H$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>IF(I$1&gt;=$B19,1,0)+IF(I$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>IF(J$1&gt;=$B19,1,0)+IF(J$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>IF(K$1&gt;=$B19,1,0)+IF(K$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>IF(L$1&gt;=$B19,1,0)+IF(L$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>IF(M$1&gt;=$B19,1,0)+IF(M$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19">
-        <f>IF(N$1&gt;=$B19,1,0)+IF(N$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f>IF(O$1&gt;=$B19,1,0)+IF(O$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>IF(P$1&gt;=$B19,1,0)+IF(P$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>IF(Q$1&gt;=$B19,1,0)+IF(Q$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>IF(R$1&gt;=$B19,1,0)+IF(R$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>IF(S$1&gt;=$B19,1,0)+IF(S$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f>IF(T$1&gt;=$B19,1,0)+IF(T$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U19">
-        <f>IF(U$1&gt;=$B19,1,0)+IF(U$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V19">
-        <f>IF(V$1&gt;=$B19,1,0)+IF(V$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>IF(W$1&gt;=$B19,1,0)+IF(W$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>IF(X$1&gt;=$B19,1,0)+IF(X$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y19">
-        <f>IF(Y$1&gt;=$B19,1,0)+IF(Y$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f>IF(Z$1&gt;=$B19,1,0)+IF(Z$1&gt;=$C19,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3434,95 +3593,95 @@
         <v>55</v>
       </c>
       <c r="D20">
-        <f>IF(D$1&gt;=$B20,1,0)+IF(D$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>IF(E$1&gt;=$B20,1,0)+IF(E$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>IF(F$1&gt;=$B20,1,0)+IF(F$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>IF(G$1&gt;=$B20,1,0)+IF(G$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>IF(H$1&gt;=$B20,1,0)+IF(H$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(I$1&gt;=$B20,1,0)+IF(I$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>IF(J$1&gt;=$B20,1,0)+IF(J$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>IF(K$1&gt;=$B20,1,0)+IF(K$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>IF(L$1&gt;=$B20,1,0)+IF(L$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>IF(M$1&gt;=$B20,1,0)+IF(M$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N20">
-        <f>IF(N$1&gt;=$B20,1,0)+IF(N$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20">
-        <f>IF(O$1&gt;=$B20,1,0)+IF(O$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>IF(P$1&gt;=$B20,1,0)+IF(P$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>IF(Q$1&gt;=$B20,1,0)+IF(Q$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R20">
-        <f>IF(R$1&gt;=$B20,1,0)+IF(R$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S20">
-        <f>IF(S$1&gt;=$B20,1,0)+IF(S$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T20">
-        <f>IF(T$1&gt;=$B20,1,0)+IF(T$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U20">
-        <f>IF(U$1&gt;=$B20,1,0)+IF(U$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V20">
-        <f>IF(V$1&gt;=$B20,1,0)+IF(V$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W20">
-        <f>IF(W$1&gt;=$B20,1,0)+IF(W$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X20">
-        <f>IF(X$1&gt;=$B20,1,0)+IF(X$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y20">
-        <f>IF(Y$1&gt;=$B20,1,0)+IF(Y$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z20">
-        <f>IF(Z$1&gt;=$B20,1,0)+IF(Z$1&gt;=$C20,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3537,95 +3696,95 @@
         <v>2017</v>
       </c>
       <c r="D21">
-        <f>IF(D$1&gt;=$B21,1,0)+IF(D$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>IF(E$1&gt;=$B21,1,0)+IF(E$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>IF(F$1&gt;=$B21,1,0)+IF(F$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>IF(G$1&gt;=$B21,1,0)+IF(G$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H21">
-        <f>IF(H$1&gt;=$B21,1,0)+IF(H$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I21">
-        <f>IF(I$1&gt;=$B21,1,0)+IF(I$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J21">
-        <f>IF(J$1&gt;=$B21,1,0)+IF(J$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K21">
-        <f>IF(K$1&gt;=$B21,1,0)+IF(K$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L21">
-        <f>IF(L$1&gt;=$B21,1,0)+IF(L$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M21">
-        <f>IF(M$1&gt;=$B21,1,0)+IF(M$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N21">
-        <f>IF(N$1&gt;=$B21,1,0)+IF(N$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O21">
-        <f>IF(O$1&gt;=$B21,1,0)+IF(O$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P21">
-        <f>IF(P$1&gt;=$B21,1,0)+IF(P$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q21">
-        <f>IF(Q$1&gt;=$B21,1,0)+IF(Q$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R21">
-        <f>IF(R$1&gt;=$B21,1,0)+IF(R$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S21">
-        <f>IF(S$1&gt;=$B21,1,0)+IF(S$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T21">
-        <f>IF(T$1&gt;=$B21,1,0)+IF(T$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U21">
-        <f>IF(U$1&gt;=$B21,1,0)+IF(U$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="V21">
-        <f>IF(V$1&gt;=$B21,1,0)+IF(V$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W21">
-        <f>IF(W$1&gt;=$B21,1,0)+IF(W$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X21">
-        <f>IF(X$1&gt;=$B21,1,0)+IF(X$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y21">
-        <f>IF(Y$1&gt;=$B21,1,0)+IF(Y$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z21">
-        <f>IF(Z$1&gt;=$B21,1,0)+IF(Z$1&gt;=$C21,1,0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3640,95 +3799,95 @@
         <v>55</v>
       </c>
       <c r="D22">
-        <f>IF(D$1&gt;=$B22,1,0)+IF(D$1&gt;=$C22,1,0)</f>
+        <f t="shared" ref="D22:M31" si="4">IF(D$1&gt;=$B22,1,0)+IF(D$1&gt;=$C22,1,0)</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>IF(E$1&gt;=$B22,1,0)+IF(E$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>IF(F$1&gt;=$B22,1,0)+IF(F$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>IF(G$1&gt;=$B22,1,0)+IF(G$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>IF(H$1&gt;=$B22,1,0)+IF(H$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>IF(I$1&gt;=$B22,1,0)+IF(I$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J22">
-        <f>IF(J$1&gt;=$B22,1,0)+IF(J$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>IF(K$1&gt;=$B22,1,0)+IF(K$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>IF(L$1&gt;=$B22,1,0)+IF(L$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>IF(M$1&gt;=$B22,1,0)+IF(M$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22">
-        <f>IF(N$1&gt;=$B22,1,0)+IF(N$1&gt;=$C22,1,0)</f>
+        <f t="shared" ref="N22:Z31" si="5">IF(N$1&gt;=$B22,1,0)+IF(N$1&gt;=$C22,1,0)</f>
         <v>0</v>
       </c>
       <c r="O22">
-        <f>IF(O$1&gt;=$B22,1,0)+IF(O$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>IF(P$1&gt;=$B22,1,0)+IF(P$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>IF(Q$1&gt;=$B22,1,0)+IF(Q$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>IF(R$1&gt;=$B22,1,0)+IF(R$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S22">
-        <f>IF(S$1&gt;=$B22,1,0)+IF(S$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T22">
-        <f>IF(T$1&gt;=$B22,1,0)+IF(T$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U22">
-        <f>IF(U$1&gt;=$B22,1,0)+IF(U$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V22">
-        <f>IF(V$1&gt;=$B22,1,0)+IF(V$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W22">
-        <f>IF(W$1&gt;=$B22,1,0)+IF(W$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X22">
-        <f>IF(X$1&gt;=$B22,1,0)+IF(X$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y22">
-        <f>IF(Y$1&gt;=$B22,1,0)+IF(Y$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z22">
-        <f>IF(Z$1&gt;=$B22,1,0)+IF(Z$1&gt;=$C22,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3743,95 +3902,95 @@
         <v>2016</v>
       </c>
       <c r="D23">
-        <f>IF(D$1&gt;=$B23,1,0)+IF(D$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>IF(E$1&gt;=$B23,1,0)+IF(E$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>IF(F$1&gt;=$B23,1,0)+IF(F$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>IF(G$1&gt;=$B23,1,0)+IF(G$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>IF(H$1&gt;=$B23,1,0)+IF(H$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(I$1&gt;=$B23,1,0)+IF(I$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f>IF(J$1&gt;=$B23,1,0)+IF(J$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>IF(K$1&gt;=$B23,1,0)+IF(K$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>IF(L$1&gt;=$B23,1,0)+IF(L$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>IF(M$1&gt;=$B23,1,0)+IF(M$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>IF(N$1&gt;=$B23,1,0)+IF(N$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O23">
-        <f>IF(O$1&gt;=$B23,1,0)+IF(O$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>IF(P$1&gt;=$B23,1,0)+IF(P$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>IF(Q$1&gt;=$B23,1,0)+IF(Q$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>IF(R$1&gt;=$B23,1,0)+IF(R$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>IF(S$1&gt;=$B23,1,0)+IF(S$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>IF(T$1&gt;=$B23,1,0)+IF(T$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U23">
-        <f>IF(U$1&gt;=$B23,1,0)+IF(U$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V23">
-        <f>IF(V$1&gt;=$B23,1,0)+IF(V$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W23">
-        <f>IF(W$1&gt;=$B23,1,0)+IF(W$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X23">
-        <f>IF(X$1&gt;=$B23,1,0)+IF(X$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Y23">
-        <f>IF(Y$1&gt;=$B23,1,0)+IF(Y$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z23">
-        <f>IF(Z$1&gt;=$B23,1,0)+IF(Z$1&gt;=$C23,1,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3846,95 +4005,95 @@
         <v>55</v>
       </c>
       <c r="D24">
-        <f>IF(D$1&gt;=$B24,1,0)+IF(D$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>IF(E$1&gt;=$B24,1,0)+IF(E$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>IF(F$1&gt;=$B24,1,0)+IF(F$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>IF(G$1&gt;=$B24,1,0)+IF(G$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>IF(H$1&gt;=$B24,1,0)+IF(H$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>IF(I$1&gt;=$B24,1,0)+IF(I$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>IF(J$1&gt;=$B24,1,0)+IF(J$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f>IF(K$1&gt;=$B24,1,0)+IF(K$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>IF(L$1&gt;=$B24,1,0)+IF(L$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>IF(M$1&gt;=$B24,1,0)+IF(M$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N24">
-        <f>IF(N$1&gt;=$B24,1,0)+IF(N$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O24">
-        <f>IF(O$1&gt;=$B24,1,0)+IF(O$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>IF(P$1&gt;=$B24,1,0)+IF(P$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q24">
-        <f>IF(Q$1&gt;=$B24,1,0)+IF(Q$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R24">
-        <f>IF(R$1&gt;=$B24,1,0)+IF(R$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S24">
-        <f>IF(S$1&gt;=$B24,1,0)+IF(S$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T24">
-        <f>IF(T$1&gt;=$B24,1,0)+IF(T$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U24">
-        <f>IF(U$1&gt;=$B24,1,0)+IF(U$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V24">
-        <f>IF(V$1&gt;=$B24,1,0)+IF(V$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W24">
-        <f>IF(W$1&gt;=$B24,1,0)+IF(W$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X24">
-        <f>IF(X$1&gt;=$B24,1,0)+IF(X$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y24">
-        <f>IF(Y$1&gt;=$B24,1,0)+IF(Y$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z24">
-        <f>IF(Z$1&gt;=$B24,1,0)+IF(Z$1&gt;=$C24,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -3949,95 +4108,95 @@
         <v>55</v>
       </c>
       <c r="D25">
-        <f>IF(D$1&gt;=$B25,1,0)+IF(D$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>IF(E$1&gt;=$B25,1,0)+IF(E$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>IF(F$1&gt;=$B25,1,0)+IF(F$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>IF(G$1&gt;=$B25,1,0)+IF(G$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>IF(H$1&gt;=$B25,1,0)+IF(H$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>IF(I$1&gt;=$B25,1,0)+IF(I$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>IF(J$1&gt;=$B25,1,0)+IF(J$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f>IF(K$1&gt;=$B25,1,0)+IF(K$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f>IF(L$1&gt;=$B25,1,0)+IF(L$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>IF(M$1&gt;=$B25,1,0)+IF(M$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25">
-        <f>IF(N$1&gt;=$B25,1,0)+IF(N$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O25">
-        <f>IF(O$1&gt;=$B25,1,0)+IF(O$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>IF(P$1&gt;=$B25,1,0)+IF(P$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>IF(Q$1&gt;=$B25,1,0)+IF(Q$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>IF(R$1&gt;=$B25,1,0)+IF(R$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S25">
-        <f>IF(S$1&gt;=$B25,1,0)+IF(S$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T25">
-        <f>IF(T$1&gt;=$B25,1,0)+IF(T$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U25">
-        <f>IF(U$1&gt;=$B25,1,0)+IF(U$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V25">
-        <f>IF(V$1&gt;=$B25,1,0)+IF(V$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W25">
-        <f>IF(W$1&gt;=$B25,1,0)+IF(W$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X25">
-        <f>IF(X$1&gt;=$B25,1,0)+IF(X$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y25">
-        <f>IF(Y$1&gt;=$B25,1,0)+IF(Y$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z25">
-        <f>IF(Z$1&gt;=$B25,1,0)+IF(Z$1&gt;=$C25,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4052,95 +4211,95 @@
         <v>55</v>
       </c>
       <c r="D26">
-        <f>IF(D$1&gt;=$B26,1,0)+IF(D$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>IF(E$1&gt;=$B26,1,0)+IF(E$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>IF(F$1&gt;=$B26,1,0)+IF(F$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>IF(G$1&gt;=$B26,1,0)+IF(G$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>IF(H$1&gt;=$B26,1,0)+IF(H$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(I$1&gt;=$B26,1,0)+IF(I$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f>IF(J$1&gt;=$B26,1,0)+IF(J$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f>IF(K$1&gt;=$B26,1,0)+IF(K$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>IF(L$1&gt;=$B26,1,0)+IF(L$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>IF(M$1&gt;=$B26,1,0)+IF(M$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N26">
-        <f>IF(N$1&gt;=$B26,1,0)+IF(N$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O26">
-        <f>IF(O$1&gt;=$B26,1,0)+IF(O$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>IF(P$1&gt;=$B26,1,0)+IF(P$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>IF(Q$1&gt;=$B26,1,0)+IF(Q$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>IF(R$1&gt;=$B26,1,0)+IF(R$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S26">
-        <f>IF(S$1&gt;=$B26,1,0)+IF(S$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T26">
-        <f>IF(T$1&gt;=$B26,1,0)+IF(T$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U26">
-        <f>IF(U$1&gt;=$B26,1,0)+IF(U$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V26">
-        <f>IF(V$1&gt;=$B26,1,0)+IF(V$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W26">
-        <f>IF(W$1&gt;=$B26,1,0)+IF(W$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X26">
-        <f>IF(X$1&gt;=$B26,1,0)+IF(X$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y26">
-        <f>IF(Y$1&gt;=$B26,1,0)+IF(Y$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f>IF(Z$1&gt;=$B26,1,0)+IF(Z$1&gt;=$C26,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4155,95 +4314,95 @@
         <v>55</v>
       </c>
       <c r="D27">
-        <f>IF(D$1&gt;=$B27,1,0)+IF(D$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>IF(E$1&gt;=$B27,1,0)+IF(E$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>IF(F$1&gt;=$B27,1,0)+IF(F$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>IF(G$1&gt;=$B27,1,0)+IF(G$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>IF(H$1&gt;=$B27,1,0)+IF(H$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>IF(I$1&gt;=$B27,1,0)+IF(I$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>IF(J$1&gt;=$B27,1,0)+IF(J$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>IF(K$1&gt;=$B27,1,0)+IF(K$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>IF(L$1&gt;=$B27,1,0)+IF(L$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>IF(M$1&gt;=$B27,1,0)+IF(M$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>IF(N$1&gt;=$B27,1,0)+IF(N$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>IF(O$1&gt;=$B27,1,0)+IF(O$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>IF(P$1&gt;=$B27,1,0)+IF(P$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>IF(Q$1&gt;=$B27,1,0)+IF(Q$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>IF(R$1&gt;=$B27,1,0)+IF(R$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>IF(S$1&gt;=$B27,1,0)+IF(S$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>IF(T$1&gt;=$B27,1,0)+IF(T$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>IF(U$1&gt;=$B27,1,0)+IF(U$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>IF(V$1&gt;=$B27,1,0)+IF(V$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>IF(W$1&gt;=$B27,1,0)+IF(W$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>IF(X$1&gt;=$B27,1,0)+IF(X$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y27">
-        <f>IF(Y$1&gt;=$B27,1,0)+IF(Y$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f>IF(Z$1&gt;=$B27,1,0)+IF(Z$1&gt;=$C27,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4258,95 +4417,95 @@
         <v>55</v>
       </c>
       <c r="D28">
-        <f>IF(D$1&gt;=$B28,1,0)+IF(D$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>IF(E$1&gt;=$B28,1,0)+IF(E$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>IF(F$1&gt;=$B28,1,0)+IF(F$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>IF(G$1&gt;=$B28,1,0)+IF(G$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>IF(H$1&gt;=$B28,1,0)+IF(H$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>IF(I$1&gt;=$B28,1,0)+IF(I$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>IF(J$1&gt;=$B28,1,0)+IF(J$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>IF(K$1&gt;=$B28,1,0)+IF(K$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>IF(L$1&gt;=$B28,1,0)+IF(L$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M28">
-        <f>IF(M$1&gt;=$B28,1,0)+IF(M$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N28">
-        <f>IF(N$1&gt;=$B28,1,0)+IF(N$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O28">
-        <f>IF(O$1&gt;=$B28,1,0)+IF(O$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P28">
-        <f>IF(P$1&gt;=$B28,1,0)+IF(P$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q28">
-        <f>IF(Q$1&gt;=$B28,1,0)+IF(Q$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R28">
-        <f>IF(R$1&gt;=$B28,1,0)+IF(R$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S28">
-        <f>IF(S$1&gt;=$B28,1,0)+IF(S$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T28">
-        <f>IF(T$1&gt;=$B28,1,0)+IF(T$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U28">
-        <f>IF(U$1&gt;=$B28,1,0)+IF(U$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V28">
-        <f>IF(V$1&gt;=$B28,1,0)+IF(V$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W28">
-        <f>IF(W$1&gt;=$B28,1,0)+IF(W$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X28">
-        <f>IF(X$1&gt;=$B28,1,0)+IF(X$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y28">
-        <f>IF(Y$1&gt;=$B28,1,0)+IF(Y$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z28">
-        <f>IF(Z$1&gt;=$B28,1,0)+IF(Z$1&gt;=$C28,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4361,95 +4520,95 @@
         <v>55</v>
       </c>
       <c r="D29">
-        <f>IF(D$1&gt;=$B29,1,0)+IF(D$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>IF(E$1&gt;=$B29,1,0)+IF(E$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>IF(F$1&gt;=$B29,1,0)+IF(F$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>IF(G$1&gt;=$B29,1,0)+IF(G$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>IF(H$1&gt;=$B29,1,0)+IF(H$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF(I$1&gt;=$B29,1,0)+IF(I$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f>IF(J$1&gt;=$B29,1,0)+IF(J$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f>IF(K$1&gt;=$B29,1,0)+IF(K$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>IF(L$1&gt;=$B29,1,0)+IF(L$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>IF(M$1&gt;=$B29,1,0)+IF(M$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N29">
-        <f>IF(N$1&gt;=$B29,1,0)+IF(N$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O29">
-        <f>IF(O$1&gt;=$B29,1,0)+IF(O$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>IF(P$1&gt;=$B29,1,0)+IF(P$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>IF(Q$1&gt;=$B29,1,0)+IF(Q$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>IF(R$1&gt;=$B29,1,0)+IF(R$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S29">
-        <f>IF(S$1&gt;=$B29,1,0)+IF(S$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T29">
-        <f>IF(T$1&gt;=$B29,1,0)+IF(T$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U29">
-        <f>IF(U$1&gt;=$B29,1,0)+IF(U$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V29">
-        <f>IF(V$1&gt;=$B29,1,0)+IF(V$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W29">
-        <f>IF(W$1&gt;=$B29,1,0)+IF(W$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X29">
-        <f>IF(X$1&gt;=$B29,1,0)+IF(X$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y29">
-        <f>IF(Y$1&gt;=$B29,1,0)+IF(Y$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f>IF(Z$1&gt;=$B29,1,0)+IF(Z$1&gt;=$C29,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4464,95 +4623,95 @@
         <v>2017</v>
       </c>
       <c r="D30">
-        <f>IF(D$1&gt;=$B30,1,0)+IF(D$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>IF(E$1&gt;=$B30,1,0)+IF(E$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>IF(F$1&gt;=$B30,1,0)+IF(F$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>IF(G$1&gt;=$B30,1,0)+IF(G$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>IF(H$1&gt;=$B30,1,0)+IF(H$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>IF(I$1&gt;=$B30,1,0)+IF(I$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J30">
-        <f>IF(J$1&gt;=$B30,1,0)+IF(J$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K30">
-        <f>IF(K$1&gt;=$B30,1,0)+IF(K$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L30">
-        <f>IF(L$1&gt;=$B30,1,0)+IF(L$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M30">
-        <f>IF(M$1&gt;=$B30,1,0)+IF(M$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N30">
-        <f>IF(N$1&gt;=$B30,1,0)+IF(N$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O30">
-        <f>IF(O$1&gt;=$B30,1,0)+IF(O$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="P30">
-        <f>IF(P$1&gt;=$B30,1,0)+IF(P$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q30">
-        <f>IF(Q$1&gt;=$B30,1,0)+IF(Q$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="R30">
-        <f>IF(R$1&gt;=$B30,1,0)+IF(R$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="S30">
-        <f>IF(S$1&gt;=$B30,1,0)+IF(S$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T30">
-        <f>IF(T$1&gt;=$B30,1,0)+IF(T$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U30">
-        <f>IF(U$1&gt;=$B30,1,0)+IF(U$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V30">
-        <f>IF(V$1&gt;=$B30,1,0)+IF(V$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W30">
-        <f>IF(W$1&gt;=$B30,1,0)+IF(W$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X30">
-        <f>IF(X$1&gt;=$B30,1,0)+IF(X$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y30">
-        <f>IF(Y$1&gt;=$B30,1,0)+IF(Y$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="Z30">
-        <f>IF(Z$1&gt;=$B30,1,0)+IF(Z$1&gt;=$C30,1,0)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -4567,95 +4726,95 @@
         <v>55</v>
       </c>
       <c r="D31">
-        <f>IF(D$1&gt;=$B31,1,0)+IF(D$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>IF(E$1&gt;=$B31,1,0)+IF(E$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>IF(F$1&gt;=$B31,1,0)+IF(F$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>IF(G$1&gt;=$B31,1,0)+IF(G$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>IF(H$1&gt;=$B31,1,0)+IF(H$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>IF(I$1&gt;=$B31,1,0)+IF(I$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f>IF(J$1&gt;=$B31,1,0)+IF(J$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f>IF(K$1&gt;=$B31,1,0)+IF(K$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>IF(L$1&gt;=$B31,1,0)+IF(L$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>IF(M$1&gt;=$B31,1,0)+IF(M$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>IF(N$1&gt;=$B31,1,0)+IF(N$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>IF(O$1&gt;=$B31,1,0)+IF(O$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P31">
-        <f>IF(P$1&gt;=$B31,1,0)+IF(P$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f>IF(Q$1&gt;=$B31,1,0)+IF(Q$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R31">
-        <f>IF(R$1&gt;=$B31,1,0)+IF(R$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S31">
-        <f>IF(S$1&gt;=$B31,1,0)+IF(S$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T31">
-        <f>IF(T$1&gt;=$B31,1,0)+IF(T$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U31">
-        <f>IF(U$1&gt;=$B31,1,0)+IF(U$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="V31">
-        <f>IF(V$1&gt;=$B31,1,0)+IF(V$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W31">
-        <f>IF(W$1&gt;=$B31,1,0)+IF(W$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X31">
-        <f>IF(X$1&gt;=$B31,1,0)+IF(X$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Y31">
-        <f>IF(Y$1&gt;=$B31,1,0)+IF(Y$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z31">
-        <f>IF(Z$1&gt;=$B31,1,0)+IF(Z$1&gt;=$C31,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -4670,95 +4829,95 @@
         <v>55</v>
       </c>
       <c r="D32">
-        <f>IF(D$1&gt;=$B32,1,0)+IF(D$1&gt;=$C32,1,0)</f>
+        <f t="shared" ref="D32:M41" si="6">IF(D$1&gt;=$B32,1,0)+IF(D$1&gt;=$C32,1,0)</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>IF(E$1&gt;=$B32,1,0)+IF(E$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>IF(F$1&gt;=$B32,1,0)+IF(F$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>IF(G$1&gt;=$B32,1,0)+IF(G$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f>IF(H$1&gt;=$B32,1,0)+IF(H$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(I$1&gt;=$B32,1,0)+IF(I$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f>IF(J$1&gt;=$B32,1,0)+IF(J$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f>IF(K$1&gt;=$B32,1,0)+IF(K$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>IF(L$1&gt;=$B32,1,0)+IF(L$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>IF(M$1&gt;=$B32,1,0)+IF(M$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N32">
-        <f>IF(N$1&gt;=$B32,1,0)+IF(N$1&gt;=$C32,1,0)</f>
+        <f t="shared" ref="N32:Z41" si="7">IF(N$1&gt;=$B32,1,0)+IF(N$1&gt;=$C32,1,0)</f>
         <v>0</v>
       </c>
       <c r="O32">
-        <f>IF(O$1&gt;=$B32,1,0)+IF(O$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P32">
-        <f>IF(P$1&gt;=$B32,1,0)+IF(P$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q32">
-        <f>IF(Q$1&gt;=$B32,1,0)+IF(Q$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R32">
-        <f>IF(R$1&gt;=$B32,1,0)+IF(R$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S32">
-        <f>IF(S$1&gt;=$B32,1,0)+IF(S$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T32">
-        <f>IF(T$1&gt;=$B32,1,0)+IF(T$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U32">
-        <f>IF(U$1&gt;=$B32,1,0)+IF(U$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V32">
-        <f>IF(V$1&gt;=$B32,1,0)+IF(V$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W32">
-        <f>IF(W$1&gt;=$B32,1,0)+IF(W$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X32">
-        <f>IF(X$1&gt;=$B32,1,0)+IF(X$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y32">
-        <f>IF(Y$1&gt;=$B32,1,0)+IF(Y$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z32">
-        <f>IF(Z$1&gt;=$B32,1,0)+IF(Z$1&gt;=$C32,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4773,95 +4932,95 @@
         <v>55</v>
       </c>
       <c r="D33">
-        <f>IF(D$1&gt;=$B33,1,0)+IF(D$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>IF(E$1&gt;=$B33,1,0)+IF(E$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>IF(F$1&gt;=$B33,1,0)+IF(F$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>IF(G$1&gt;=$B33,1,0)+IF(G$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f>IF(H$1&gt;=$B33,1,0)+IF(H$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f>IF(I$1&gt;=$B33,1,0)+IF(I$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f>IF(J$1&gt;=$B33,1,0)+IF(J$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f>IF(K$1&gt;=$B33,1,0)+IF(K$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>IF(L$1&gt;=$B33,1,0)+IF(L$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>IF(M$1&gt;=$B33,1,0)+IF(M$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N33">
-        <f>IF(N$1&gt;=$B33,1,0)+IF(N$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O33">
-        <f>IF(O$1&gt;=$B33,1,0)+IF(O$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P33">
-        <f>IF(P$1&gt;=$B33,1,0)+IF(P$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q33">
-        <f>IF(Q$1&gt;=$B33,1,0)+IF(Q$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R33">
-        <f>IF(R$1&gt;=$B33,1,0)+IF(R$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S33">
-        <f>IF(S$1&gt;=$B33,1,0)+IF(S$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T33">
-        <f>IF(T$1&gt;=$B33,1,0)+IF(T$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U33">
-        <f>IF(U$1&gt;=$B33,1,0)+IF(U$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V33">
-        <f>IF(V$1&gt;=$B33,1,0)+IF(V$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W33">
-        <f>IF(W$1&gt;=$B33,1,0)+IF(W$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X33">
-        <f>IF(X$1&gt;=$B33,1,0)+IF(X$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y33">
-        <f>IF(Y$1&gt;=$B33,1,0)+IF(Y$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z33">
-        <f>IF(Z$1&gt;=$B33,1,0)+IF(Z$1&gt;=$C33,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4876,95 +5035,95 @@
         <v>55</v>
       </c>
       <c r="D34">
-        <f>IF(D$1&gt;=$B34,1,0)+IF(D$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>IF(E$1&gt;=$B34,1,0)+IF(E$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>IF(F$1&gt;=$B34,1,0)+IF(F$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>IF(G$1&gt;=$B34,1,0)+IF(G$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34">
-        <f>IF(H$1&gt;=$B34,1,0)+IF(H$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f>IF(I$1&gt;=$B34,1,0)+IF(I$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J34">
-        <f>IF(J$1&gt;=$B34,1,0)+IF(J$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f>IF(K$1&gt;=$B34,1,0)+IF(K$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f>IF(L$1&gt;=$B34,1,0)+IF(L$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>IF(M$1&gt;=$B34,1,0)+IF(M$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N34">
-        <f>IF(N$1&gt;=$B34,1,0)+IF(N$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O34">
-        <f>IF(O$1&gt;=$B34,1,0)+IF(O$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f>IF(P$1&gt;=$B34,1,0)+IF(P$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q34">
-        <f>IF(Q$1&gt;=$B34,1,0)+IF(Q$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R34">
-        <f>IF(R$1&gt;=$B34,1,0)+IF(R$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S34">
-        <f>IF(S$1&gt;=$B34,1,0)+IF(S$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T34">
-        <f>IF(T$1&gt;=$B34,1,0)+IF(T$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U34">
-        <f>IF(U$1&gt;=$B34,1,0)+IF(U$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V34">
-        <f>IF(V$1&gt;=$B34,1,0)+IF(V$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W34">
-        <f>IF(W$1&gt;=$B34,1,0)+IF(W$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X34">
-        <f>IF(X$1&gt;=$B34,1,0)+IF(X$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y34">
-        <f>IF(Y$1&gt;=$B34,1,0)+IF(Y$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z34">
-        <f>IF(Z$1&gt;=$B34,1,0)+IF(Z$1&gt;=$C34,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4979,95 +5138,95 @@
         <v>55</v>
       </c>
       <c r="D35">
-        <f>IF(D$1&gt;=$B35,1,0)+IF(D$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>IF(E$1&gt;=$B35,1,0)+IF(E$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>IF(F$1&gt;=$B35,1,0)+IF(F$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>IF(G$1&gt;=$B35,1,0)+IF(G$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <f>IF(H$1&gt;=$B35,1,0)+IF(H$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(I$1&gt;=$B35,1,0)+IF(I$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f>IF(J$1&gt;=$B35,1,0)+IF(J$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f>IF(K$1&gt;=$B35,1,0)+IF(K$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f>IF(L$1&gt;=$B35,1,0)+IF(L$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>IF(M$1&gt;=$B35,1,0)+IF(M$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N35">
-        <f>IF(N$1&gt;=$B35,1,0)+IF(N$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O35">
-        <f>IF(O$1&gt;=$B35,1,0)+IF(O$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f>IF(P$1&gt;=$B35,1,0)+IF(P$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q35">
-        <f>IF(Q$1&gt;=$B35,1,0)+IF(Q$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R35">
-        <f>IF(R$1&gt;=$B35,1,0)+IF(R$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S35">
-        <f>IF(S$1&gt;=$B35,1,0)+IF(S$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T35">
-        <f>IF(T$1&gt;=$B35,1,0)+IF(T$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U35">
-        <f>IF(U$1&gt;=$B35,1,0)+IF(U$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35">
-        <f>IF(V$1&gt;=$B35,1,0)+IF(V$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W35">
-        <f>IF(W$1&gt;=$B35,1,0)+IF(W$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X35">
-        <f>IF(X$1&gt;=$B35,1,0)+IF(X$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y35">
-        <f>IF(Y$1&gt;=$B35,1,0)+IF(Y$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f>IF(Z$1&gt;=$B35,1,0)+IF(Z$1&gt;=$C35,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5082,95 +5241,95 @@
         <v>55</v>
       </c>
       <c r="D36">
-        <f>IF(D$1&gt;=$B36,1,0)+IF(D$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>IF(E$1&gt;=$B36,1,0)+IF(E$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>IF(F$1&gt;=$B36,1,0)+IF(F$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>IF(G$1&gt;=$B36,1,0)+IF(G$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f>IF(H$1&gt;=$B36,1,0)+IF(H$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f>IF(I$1&gt;=$B36,1,0)+IF(I$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f>IF(J$1&gt;=$B36,1,0)+IF(J$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f>IF(K$1&gt;=$B36,1,0)+IF(K$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f>IF(L$1&gt;=$B36,1,0)+IF(L$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>IF(M$1&gt;=$B36,1,0)+IF(M$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N36">
-        <f>IF(N$1&gt;=$B36,1,0)+IF(N$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f>IF(O$1&gt;=$B36,1,0)+IF(O$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f>IF(P$1&gt;=$B36,1,0)+IF(P$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f>IF(Q$1&gt;=$B36,1,0)+IF(Q$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R36">
-        <f>IF(R$1&gt;=$B36,1,0)+IF(R$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f>IF(S$1&gt;=$B36,1,0)+IF(S$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T36">
-        <f>IF(T$1&gt;=$B36,1,0)+IF(T$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U36">
-        <f>IF(U$1&gt;=$B36,1,0)+IF(U$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V36">
-        <f>IF(V$1&gt;=$B36,1,0)+IF(V$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W36">
-        <f>IF(W$1&gt;=$B36,1,0)+IF(W$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X36">
-        <f>IF(X$1&gt;=$B36,1,0)+IF(X$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y36">
-        <f>IF(Y$1&gt;=$B36,1,0)+IF(Y$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z36">
-        <f>IF(Z$1&gt;=$B36,1,0)+IF(Z$1&gt;=$C36,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5185,95 +5344,95 @@
         <v>55</v>
       </c>
       <c r="D37">
-        <f>IF(D$1&gt;=$B37,1,0)+IF(D$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>IF(E$1&gt;=$B37,1,0)+IF(E$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>IF(F$1&gt;=$B37,1,0)+IF(F$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>IF(G$1&gt;=$B37,1,0)+IF(G$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f>IF(H$1&gt;=$B37,1,0)+IF(H$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f>IF(I$1&gt;=$B37,1,0)+IF(I$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f>IF(J$1&gt;=$B37,1,0)+IF(J$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f>IF(K$1&gt;=$B37,1,0)+IF(K$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f>IF(L$1&gt;=$B37,1,0)+IF(L$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>IF(M$1&gt;=$B37,1,0)+IF(M$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N37">
-        <f>IF(N$1&gt;=$B37,1,0)+IF(N$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f>IF(O$1&gt;=$B37,1,0)+IF(O$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f>IF(P$1&gt;=$B37,1,0)+IF(P$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f>IF(Q$1&gt;=$B37,1,0)+IF(Q$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R37">
-        <f>IF(R$1&gt;=$B37,1,0)+IF(R$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f>IF(S$1&gt;=$B37,1,0)+IF(S$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T37">
-        <f>IF(T$1&gt;=$B37,1,0)+IF(T$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U37">
-        <f>IF(U$1&gt;=$B37,1,0)+IF(U$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37">
-        <f>IF(V$1&gt;=$B37,1,0)+IF(V$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W37">
-        <f>IF(W$1&gt;=$B37,1,0)+IF(W$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X37">
-        <f>IF(X$1&gt;=$B37,1,0)+IF(X$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y37">
-        <f>IF(Y$1&gt;=$B37,1,0)+IF(Y$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z37">
-        <f>IF(Z$1&gt;=$B37,1,0)+IF(Z$1&gt;=$C37,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5288,95 +5447,95 @@
         <v>55</v>
       </c>
       <c r="D38">
-        <f>IF(D$1&gt;=$B38,1,0)+IF(D$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>IF(E$1&gt;=$B38,1,0)+IF(E$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>IF(F$1&gt;=$B38,1,0)+IF(F$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>IF(G$1&gt;=$B38,1,0)+IF(G$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f>IF(H$1&gt;=$B38,1,0)+IF(H$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f>IF(I$1&gt;=$B38,1,0)+IF(I$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>IF(J$1&gt;=$B38,1,0)+IF(J$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f>IF(K$1&gt;=$B38,1,0)+IF(K$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f>IF(L$1&gt;=$B38,1,0)+IF(L$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f>IF(M$1&gt;=$B38,1,0)+IF(M$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N38">
-        <f>IF(N$1&gt;=$B38,1,0)+IF(N$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f>IF(O$1&gt;=$B38,1,0)+IF(O$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f>IF(P$1&gt;=$B38,1,0)+IF(P$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f>IF(Q$1&gt;=$B38,1,0)+IF(Q$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R38">
-        <f>IF(R$1&gt;=$B38,1,0)+IF(R$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <f>IF(S$1&gt;=$B38,1,0)+IF(S$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T38">
-        <f>IF(T$1&gt;=$B38,1,0)+IF(T$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U38">
-        <f>IF(U$1&gt;=$B38,1,0)+IF(U$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38">
-        <f>IF(V$1&gt;=$B38,1,0)+IF(V$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W38">
-        <f>IF(W$1&gt;=$B38,1,0)+IF(W$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <f>IF(X$1&gt;=$B38,1,0)+IF(X$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f>IF(Y$1&gt;=$B38,1,0)+IF(Y$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f>IF(Z$1&gt;=$B38,1,0)+IF(Z$1&gt;=$C38,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5391,95 +5550,95 @@
         <v>2015</v>
       </c>
       <c r="D39">
-        <f>IF(D$1&gt;=$B39,1,0)+IF(D$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>IF(E$1&gt;=$B39,1,0)+IF(E$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>IF(F$1&gt;=$B39,1,0)+IF(F$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G39">
-        <f>IF(G$1&gt;=$B39,1,0)+IF(G$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H39">
-        <f>IF(H$1&gt;=$B39,1,0)+IF(H$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I39">
-        <f>IF(I$1&gt;=$B39,1,0)+IF(I$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J39">
-        <f>IF(J$1&gt;=$B39,1,0)+IF(J$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K39">
-        <f>IF(K$1&gt;=$B39,1,0)+IF(K$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L39">
-        <f>IF(L$1&gt;=$B39,1,0)+IF(L$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="M39">
-        <f>IF(M$1&gt;=$B39,1,0)+IF(M$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N39">
-        <f>IF(N$1&gt;=$B39,1,0)+IF(N$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O39">
-        <f>IF(O$1&gt;=$B39,1,0)+IF(O$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P39">
-        <f>IF(P$1&gt;=$B39,1,0)+IF(P$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q39">
-        <f>IF(Q$1&gt;=$B39,1,0)+IF(Q$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R39">
-        <f>IF(R$1&gt;=$B39,1,0)+IF(R$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S39">
-        <f>IF(S$1&gt;=$B39,1,0)+IF(S$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T39">
-        <f>IF(T$1&gt;=$B39,1,0)+IF(T$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U39">
-        <f>IF(U$1&gt;=$B39,1,0)+IF(U$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V39">
-        <f>IF(V$1&gt;=$B39,1,0)+IF(V$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W39">
-        <f>IF(W$1&gt;=$B39,1,0)+IF(W$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="X39">
-        <f>IF(X$1&gt;=$B39,1,0)+IF(X$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Y39">
-        <f>IF(Y$1&gt;=$B39,1,0)+IF(Y$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Z39">
-        <f>IF(Z$1&gt;=$B39,1,0)+IF(Z$1&gt;=$C39,1,0)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -5494,95 +5653,95 @@
         <v>55</v>
       </c>
       <c r="D40">
-        <f>IF(D$1&gt;=$B40,1,0)+IF(D$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>IF(E$1&gt;=$B40,1,0)+IF(E$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>IF(F$1&gt;=$B40,1,0)+IF(F$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>IF(G$1&gt;=$B40,1,0)+IF(G$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f>IF(H$1&gt;=$B40,1,0)+IF(H$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40">
-        <f>IF(I$1&gt;=$B40,1,0)+IF(I$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>IF(J$1&gt;=$B40,1,0)+IF(J$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f>IF(K$1&gt;=$B40,1,0)+IF(K$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f>IF(L$1&gt;=$B40,1,0)+IF(L$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f>IF(M$1&gt;=$B40,1,0)+IF(M$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N40">
-        <f>IF(N$1&gt;=$B40,1,0)+IF(N$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f>IF(O$1&gt;=$B40,1,0)+IF(O$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f>IF(P$1&gt;=$B40,1,0)+IF(P$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f>IF(Q$1&gt;=$B40,1,0)+IF(Q$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R40">
-        <f>IF(R$1&gt;=$B40,1,0)+IF(R$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f>IF(S$1&gt;=$B40,1,0)+IF(S$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T40">
-        <f>IF(T$1&gt;=$B40,1,0)+IF(T$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U40">
-        <f>IF(U$1&gt;=$B40,1,0)+IF(U$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f>IF(V$1&gt;=$B40,1,0)+IF(V$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f>IF(W$1&gt;=$B40,1,0)+IF(W$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X40">
-        <f>IF(X$1&gt;=$B40,1,0)+IF(X$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y40">
-        <f>IF(Y$1&gt;=$B40,1,0)+IF(Y$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z40">
-        <f>IF(Z$1&gt;=$B40,1,0)+IF(Z$1&gt;=$C40,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5597,95 +5756,95 @@
         <v>55</v>
       </c>
       <c r="D41">
-        <f>IF(D$1&gt;=$B41,1,0)+IF(D$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>IF(E$1&gt;=$B41,1,0)+IF(E$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>IF(F$1&gt;=$B41,1,0)+IF(F$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>IF(G$1&gt;=$B41,1,0)+IF(G$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H41">
-        <f>IF(H$1&gt;=$B41,1,0)+IF(H$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41">
-        <f>IF(I$1&gt;=$B41,1,0)+IF(I$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f>IF(J$1&gt;=$B41,1,0)+IF(J$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f>IF(K$1&gt;=$B41,1,0)+IF(K$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f>IF(L$1&gt;=$B41,1,0)+IF(L$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>IF(M$1&gt;=$B41,1,0)+IF(M$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N41">
-        <f>IF(N$1&gt;=$B41,1,0)+IF(N$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O41">
-        <f>IF(O$1&gt;=$B41,1,0)+IF(O$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P41">
-        <f>IF(P$1&gt;=$B41,1,0)+IF(P$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q41">
-        <f>IF(Q$1&gt;=$B41,1,0)+IF(Q$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R41">
-        <f>IF(R$1&gt;=$B41,1,0)+IF(R$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S41">
-        <f>IF(S$1&gt;=$B41,1,0)+IF(S$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T41">
-        <f>IF(T$1&gt;=$B41,1,0)+IF(T$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U41">
-        <f>IF(U$1&gt;=$B41,1,0)+IF(U$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V41">
-        <f>IF(V$1&gt;=$B41,1,0)+IF(V$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W41">
-        <f>IF(W$1&gt;=$B41,1,0)+IF(W$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X41">
-        <f>IF(X$1&gt;=$B41,1,0)+IF(X$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y41">
-        <f>IF(Y$1&gt;=$B41,1,0)+IF(Y$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Z41">
-        <f>IF(Z$1&gt;=$B41,1,0)+IF(Z$1&gt;=$C41,1,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5700,95 +5859,95 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <f>IF(D$1&gt;=$B42,1,0)+IF(D$1&gt;=$C42,1,0)</f>
+        <f t="shared" ref="D42:M52" si="8">IF(D$1&gt;=$B42,1,0)+IF(D$1&gt;=$C42,1,0)</f>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>IF(E$1&gt;=$B42,1,0)+IF(E$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>IF(F$1&gt;=$B42,1,0)+IF(F$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>IF(G$1&gt;=$B42,1,0)+IF(G$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f>IF(H$1&gt;=$B42,1,0)+IF(H$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I42">
-        <f>IF(I$1&gt;=$B42,1,0)+IF(I$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>IF(J$1&gt;=$B42,1,0)+IF(J$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f>IF(K$1&gt;=$B42,1,0)+IF(K$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f>IF(L$1&gt;=$B42,1,0)+IF(L$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>IF(M$1&gt;=$B42,1,0)+IF(M$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N42">
-        <f>IF(N$1&gt;=$B42,1,0)+IF(N$1&gt;=$C42,1,0)</f>
+        <f t="shared" ref="N42:Z52" si="9">IF(N$1&gt;=$B42,1,0)+IF(N$1&gt;=$C42,1,0)</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f>IF(O$1&gt;=$B42,1,0)+IF(O$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f>IF(P$1&gt;=$B42,1,0)+IF(P$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f>IF(Q$1&gt;=$B42,1,0)+IF(Q$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R42">
-        <f>IF(R$1&gt;=$B42,1,0)+IF(R$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <f>IF(S$1&gt;=$B42,1,0)+IF(S$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T42">
-        <f>IF(T$1&gt;=$B42,1,0)+IF(T$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U42">
-        <f>IF(U$1&gt;=$B42,1,0)+IF(U$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V42">
-        <f>IF(V$1&gt;=$B42,1,0)+IF(V$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W42">
-        <f>IF(W$1&gt;=$B42,1,0)+IF(W$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X42">
-        <f>IF(X$1&gt;=$B42,1,0)+IF(X$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f>IF(Y$1&gt;=$B42,1,0)+IF(Y$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f>IF(Z$1&gt;=$B42,1,0)+IF(Z$1&gt;=$C42,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5803,95 +5962,95 @@
         <v>55</v>
       </c>
       <c r="D43">
-        <f>IF(D$1&gt;=$B43,1,0)+IF(D$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>IF(E$1&gt;=$B43,1,0)+IF(E$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>IF(F$1&gt;=$B43,1,0)+IF(F$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>IF(G$1&gt;=$B43,1,0)+IF(G$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <f>IF(H$1&gt;=$B43,1,0)+IF(H$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>IF(I$1&gt;=$B43,1,0)+IF(I$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f>IF(J$1&gt;=$B43,1,0)+IF(J$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f>IF(K$1&gt;=$B43,1,0)+IF(K$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f>IF(L$1&gt;=$B43,1,0)+IF(L$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>IF(M$1&gt;=$B43,1,0)+IF(M$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f>IF(N$1&gt;=$B43,1,0)+IF(N$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f>IF(O$1&gt;=$B43,1,0)+IF(O$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f>IF(P$1&gt;=$B43,1,0)+IF(P$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f>IF(Q$1&gt;=$B43,1,0)+IF(Q$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f>IF(R$1&gt;=$B43,1,0)+IF(R$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f>IF(S$1&gt;=$B43,1,0)+IF(S$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T43">
-        <f>IF(T$1&gt;=$B43,1,0)+IF(T$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U43">
-        <f>IF(U$1&gt;=$B43,1,0)+IF(U$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V43">
-        <f>IF(V$1&gt;=$B43,1,0)+IF(V$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W43">
-        <f>IF(W$1&gt;=$B43,1,0)+IF(W$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X43">
-        <f>IF(X$1&gt;=$B43,1,0)+IF(X$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f>IF(Y$1&gt;=$B43,1,0)+IF(Y$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f>IF(Z$1&gt;=$B43,1,0)+IF(Z$1&gt;=$C43,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5906,95 +6065,95 @@
         <v>55</v>
       </c>
       <c r="D44">
-        <f>IF(D$1&gt;=$B44,1,0)+IF(D$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>IF(E$1&gt;=$B44,1,0)+IF(E$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>IF(F$1&gt;=$B44,1,0)+IF(F$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>IF(G$1&gt;=$B44,1,0)+IF(G$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f>IF(H$1&gt;=$B44,1,0)+IF(H$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(I$1&gt;=$B44,1,0)+IF(I$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>IF(J$1&gt;=$B44,1,0)+IF(J$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f>IF(K$1&gt;=$B44,1,0)+IF(K$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f>IF(L$1&gt;=$B44,1,0)+IF(L$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>IF(M$1&gt;=$B44,1,0)+IF(M$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N44">
-        <f>IF(N$1&gt;=$B44,1,0)+IF(N$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f>IF(O$1&gt;=$B44,1,0)+IF(O$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f>IF(P$1&gt;=$B44,1,0)+IF(P$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f>IF(Q$1&gt;=$B44,1,0)+IF(Q$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R44">
-        <f>IF(R$1&gt;=$B44,1,0)+IF(R$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>IF(S$1&gt;=$B44,1,0)+IF(S$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T44">
-        <f>IF(T$1&gt;=$B44,1,0)+IF(T$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U44">
-        <f>IF(U$1&gt;=$B44,1,0)+IF(U$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V44">
-        <f>IF(V$1&gt;=$B44,1,0)+IF(V$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W44">
-        <f>IF(W$1&gt;=$B44,1,0)+IF(W$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X44">
-        <f>IF(X$1&gt;=$B44,1,0)+IF(X$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f>IF(Y$1&gt;=$B44,1,0)+IF(Y$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f>IF(Z$1&gt;=$B44,1,0)+IF(Z$1&gt;=$C44,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6009,95 +6168,95 @@
         <v>55</v>
       </c>
       <c r="D45">
-        <f>IF(D$1&gt;=$B45,1,0)+IF(D$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>IF(E$1&gt;=$B45,1,0)+IF(E$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>IF(F$1&gt;=$B45,1,0)+IF(F$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>IF(G$1&gt;=$B45,1,0)+IF(G$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f>IF(H$1&gt;=$B45,1,0)+IF(H$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I45">
-        <f>IF(I$1&gt;=$B45,1,0)+IF(I$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>IF(J$1&gt;=$B45,1,0)+IF(J$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f>IF(K$1&gt;=$B45,1,0)+IF(K$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f>IF(L$1&gt;=$B45,1,0)+IF(L$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>IF(M$1&gt;=$B45,1,0)+IF(M$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N45">
-        <f>IF(N$1&gt;=$B45,1,0)+IF(N$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>IF(O$1&gt;=$B45,1,0)+IF(O$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f>IF(P$1&gt;=$B45,1,0)+IF(P$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f>IF(Q$1&gt;=$B45,1,0)+IF(Q$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R45">
-        <f>IF(R$1&gt;=$B45,1,0)+IF(R$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>IF(S$1&gt;=$B45,1,0)+IF(S$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T45">
-        <f>IF(T$1&gt;=$B45,1,0)+IF(T$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U45">
-        <f>IF(U$1&gt;=$B45,1,0)+IF(U$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V45">
-        <f>IF(V$1&gt;=$B45,1,0)+IF(V$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W45">
-        <f>IF(W$1&gt;=$B45,1,0)+IF(W$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X45">
-        <f>IF(X$1&gt;=$B45,1,0)+IF(X$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f>IF(Y$1&gt;=$B45,1,0)+IF(Y$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f>IF(Z$1&gt;=$B45,1,0)+IF(Z$1&gt;=$C45,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6112,95 +6271,95 @@
         <v>55</v>
       </c>
       <c r="D46">
-        <f>IF(D$1&gt;=$B46,1,0)+IF(D$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>IF(E$1&gt;=$B46,1,0)+IF(E$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>IF(F$1&gt;=$B46,1,0)+IF(F$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>IF(G$1&gt;=$B46,1,0)+IF(G$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H46">
-        <f>IF(H$1&gt;=$B46,1,0)+IF(H$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I46">
-        <f>IF(I$1&gt;=$B46,1,0)+IF(I$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>IF(J$1&gt;=$B46,1,0)+IF(J$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f>IF(K$1&gt;=$B46,1,0)+IF(K$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f>IF(L$1&gt;=$B46,1,0)+IF(L$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>IF(M$1&gt;=$B46,1,0)+IF(M$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N46">
-        <f>IF(N$1&gt;=$B46,1,0)+IF(N$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f>IF(O$1&gt;=$B46,1,0)+IF(O$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f>IF(P$1&gt;=$B46,1,0)+IF(P$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f>IF(Q$1&gt;=$B46,1,0)+IF(Q$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R46">
-        <f>IF(R$1&gt;=$B46,1,0)+IF(R$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S46">
-        <f>IF(S$1&gt;=$B46,1,0)+IF(S$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T46">
-        <f>IF(T$1&gt;=$B46,1,0)+IF(T$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U46">
-        <f>IF(U$1&gt;=$B46,1,0)+IF(U$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V46">
-        <f>IF(V$1&gt;=$B46,1,0)+IF(V$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W46">
-        <f>IF(W$1&gt;=$B46,1,0)+IF(W$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X46">
-        <f>IF(X$1&gt;=$B46,1,0)+IF(X$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f>IF(Y$1&gt;=$B46,1,0)+IF(Y$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f>IF(Z$1&gt;=$B46,1,0)+IF(Z$1&gt;=$C46,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6215,95 +6374,95 @@
         <v>55</v>
       </c>
       <c r="D47">
-        <f>IF(D$1&gt;=$B47,1,0)+IF(D$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>IF(E$1&gt;=$B47,1,0)+IF(E$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>IF(F$1&gt;=$B47,1,0)+IF(F$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>IF(G$1&gt;=$B47,1,0)+IF(G$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f>IF(H$1&gt;=$B47,1,0)+IF(H$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f>IF(I$1&gt;=$B47,1,0)+IF(I$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f>IF(J$1&gt;=$B47,1,0)+IF(J$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f>IF(K$1&gt;=$B47,1,0)+IF(K$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f>IF(L$1&gt;=$B47,1,0)+IF(L$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M47">
-        <f>IF(M$1&gt;=$B47,1,0)+IF(M$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N47">
-        <f>IF(N$1&gt;=$B47,1,0)+IF(N$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O47">
-        <f>IF(O$1&gt;=$B47,1,0)+IF(O$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P47">
-        <f>IF(P$1&gt;=$B47,1,0)+IF(P$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q47">
-        <f>IF(Q$1&gt;=$B47,1,0)+IF(Q$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R47">
-        <f>IF(R$1&gt;=$B47,1,0)+IF(R$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S47">
-        <f>IF(S$1&gt;=$B47,1,0)+IF(S$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T47">
-        <f>IF(T$1&gt;=$B47,1,0)+IF(T$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="U47">
-        <f>IF(U$1&gt;=$B47,1,0)+IF(U$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V47">
-        <f>IF(V$1&gt;=$B47,1,0)+IF(V$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W47">
-        <f>IF(W$1&gt;=$B47,1,0)+IF(W$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X47">
-        <f>IF(X$1&gt;=$B47,1,0)+IF(X$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Y47">
-        <f>IF(Y$1&gt;=$B47,1,0)+IF(Y$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z47">
-        <f>IF(Z$1&gt;=$B47,1,0)+IF(Z$1&gt;=$C47,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -6318,95 +6477,95 @@
         <v>55</v>
       </c>
       <c r="D48">
-        <f>IF(D$1&gt;=$B48,1,0)+IF(D$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>IF(E$1&gt;=$B48,1,0)+IF(E$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>IF(F$1&gt;=$B48,1,0)+IF(F$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>IF(G$1&gt;=$B48,1,0)+IF(G$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H48">
-        <f>IF(H$1&gt;=$B48,1,0)+IF(H$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f>IF(I$1&gt;=$B48,1,0)+IF(I$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>IF(J$1&gt;=$B48,1,0)+IF(J$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f>IF(K$1&gt;=$B48,1,0)+IF(K$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f>IF(L$1&gt;=$B48,1,0)+IF(L$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f>IF(M$1&gt;=$B48,1,0)+IF(M$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N48">
-        <f>IF(N$1&gt;=$B48,1,0)+IF(N$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f>IF(O$1&gt;=$B48,1,0)+IF(O$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f>IF(P$1&gt;=$B48,1,0)+IF(P$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f>IF(Q$1&gt;=$B48,1,0)+IF(Q$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R48">
-        <f>IF(R$1&gt;=$B48,1,0)+IF(R$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S48">
-        <f>IF(S$1&gt;=$B48,1,0)+IF(S$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T48">
-        <f>IF(T$1&gt;=$B48,1,0)+IF(T$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U48">
-        <f>IF(U$1&gt;=$B48,1,0)+IF(U$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V48">
-        <f>IF(V$1&gt;=$B48,1,0)+IF(V$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W48">
-        <f>IF(W$1&gt;=$B48,1,0)+IF(W$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X48">
-        <f>IF(X$1&gt;=$B48,1,0)+IF(X$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f>IF(Y$1&gt;=$B48,1,0)+IF(Y$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f>IF(Z$1&gt;=$B48,1,0)+IF(Z$1&gt;=$C48,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6421,95 +6580,95 @@
         <v>2012</v>
       </c>
       <c r="D49">
-        <f>IF(D$1&gt;=$B49,1,0)+IF(D$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>IF(E$1&gt;=$B49,1,0)+IF(E$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>IF(F$1&gt;=$B49,1,0)+IF(F$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G49">
-        <f>IF(G$1&gt;=$B49,1,0)+IF(G$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H49">
-        <f>IF(H$1&gt;=$B49,1,0)+IF(H$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I49">
-        <f>IF(I$1&gt;=$B49,1,0)+IF(I$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J49">
-        <f>IF(J$1&gt;=$B49,1,0)+IF(J$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K49">
-        <f>IF(K$1&gt;=$B49,1,0)+IF(K$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="L49">
-        <f>IF(L$1&gt;=$B49,1,0)+IF(L$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="M49">
-        <f>IF(M$1&gt;=$B49,1,0)+IF(M$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="N49">
-        <f>IF(N$1&gt;=$B49,1,0)+IF(N$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O49">
-        <f>IF(O$1&gt;=$B49,1,0)+IF(O$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P49">
-        <f>IF(P$1&gt;=$B49,1,0)+IF(P$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Q49">
-        <f>IF(Q$1&gt;=$B49,1,0)+IF(Q$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="R49">
-        <f>IF(R$1&gt;=$B49,1,0)+IF(R$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="S49">
-        <f>IF(S$1&gt;=$B49,1,0)+IF(S$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T49">
-        <f>IF(T$1&gt;=$B49,1,0)+IF(T$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="U49">
-        <f>IF(U$1&gt;=$B49,1,0)+IF(U$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V49">
-        <f>IF(V$1&gt;=$B49,1,0)+IF(V$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="W49">
-        <f>IF(W$1&gt;=$B49,1,0)+IF(W$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X49">
-        <f>IF(X$1&gt;=$B49,1,0)+IF(X$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="Y49">
-        <f>IF(Y$1&gt;=$B49,1,0)+IF(Y$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="Z49">
-        <f>IF(Z$1&gt;=$B49,1,0)+IF(Z$1&gt;=$C49,1,0)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -6524,95 +6683,95 @@
         <v>55</v>
       </c>
       <c r="D50">
-        <f>IF(D$1&gt;=$B50,1,0)+IF(D$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>IF(E$1&gt;=$B50,1,0)+IF(E$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>IF(F$1&gt;=$B50,1,0)+IF(F$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>IF(G$1&gt;=$B50,1,0)+IF(G$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f>IF(H$1&gt;=$B50,1,0)+IF(H$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f>IF(I$1&gt;=$B50,1,0)+IF(I$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f>IF(J$1&gt;=$B50,1,0)+IF(J$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f>IF(K$1&gt;=$B50,1,0)+IF(K$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f>IF(L$1&gt;=$B50,1,0)+IF(L$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f>IF(M$1&gt;=$B50,1,0)+IF(M$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f>IF(N$1&gt;=$B50,1,0)+IF(N$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f>IF(O$1&gt;=$B50,1,0)+IF(O$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f>IF(P$1&gt;=$B50,1,0)+IF(P$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f>IF(Q$1&gt;=$B50,1,0)+IF(Q$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R50">
-        <f>IF(R$1&gt;=$B50,1,0)+IF(R$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S50">
-        <f>IF(S$1&gt;=$B50,1,0)+IF(S$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T50">
-        <f>IF(T$1&gt;=$B50,1,0)+IF(T$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U50">
-        <f>IF(U$1&gt;=$B50,1,0)+IF(U$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V50">
-        <f>IF(V$1&gt;=$B50,1,0)+IF(V$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W50">
-        <f>IF(W$1&gt;=$B50,1,0)+IF(W$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X50">
-        <f>IF(X$1&gt;=$B50,1,0)+IF(X$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f>IF(Y$1&gt;=$B50,1,0)+IF(Y$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f>IF(Z$1&gt;=$B50,1,0)+IF(Z$1&gt;=$C50,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6627,95 +6786,95 @@
         <v>55</v>
       </c>
       <c r="D51">
-        <f>IF(D$1&gt;=$B51,1,0)+IF(D$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>IF(E$1&gt;=$B51,1,0)+IF(E$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F51">
-        <f>IF(F$1&gt;=$B51,1,0)+IF(F$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G51">
-        <f>IF(G$1&gt;=$B51,1,0)+IF(G$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f>IF(H$1&gt;=$B51,1,0)+IF(H$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f>IF(I$1&gt;=$B51,1,0)+IF(I$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f>IF(J$1&gt;=$B51,1,0)+IF(J$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f>IF(K$1&gt;=$B51,1,0)+IF(K$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f>IF(L$1&gt;=$B51,1,0)+IF(L$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f>IF(M$1&gt;=$B51,1,0)+IF(M$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f>IF(N$1&gt;=$B51,1,0)+IF(N$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f>IF(O$1&gt;=$B51,1,0)+IF(O$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f>IF(P$1&gt;=$B51,1,0)+IF(P$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f>IF(Q$1&gt;=$B51,1,0)+IF(Q$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R51">
-        <f>IF(R$1&gt;=$B51,1,0)+IF(R$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S51">
-        <f>IF(S$1&gt;=$B51,1,0)+IF(S$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T51">
-        <f>IF(T$1&gt;=$B51,1,0)+IF(T$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U51">
-        <f>IF(U$1&gt;=$B51,1,0)+IF(U$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V51">
-        <f>IF(V$1&gt;=$B51,1,0)+IF(V$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W51">
-        <f>IF(W$1&gt;=$B51,1,0)+IF(W$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X51">
-        <f>IF(X$1&gt;=$B51,1,0)+IF(X$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f>IF(Y$1&gt;=$B51,1,0)+IF(Y$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f>IF(Z$1&gt;=$B51,1,0)+IF(Z$1&gt;=$C51,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6730,95 +6889,95 @@
         <v>55</v>
       </c>
       <c r="D52">
-        <f>IF(D$1&gt;=$B52,1,0)+IF(D$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>IF(E$1&gt;=$B52,1,0)+IF(E$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F52">
-        <f>IF(F$1&gt;=$B52,1,0)+IF(F$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>IF(G$1&gt;=$B52,1,0)+IF(G$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f>IF(H$1&gt;=$B52,1,0)+IF(H$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f>IF(I$1&gt;=$B52,1,0)+IF(I$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f>IF(J$1&gt;=$B52,1,0)+IF(J$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f>IF(K$1&gt;=$B52,1,0)+IF(K$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f>IF(L$1&gt;=$B52,1,0)+IF(L$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>IF(M$1&gt;=$B52,1,0)+IF(M$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f>IF(N$1&gt;=$B52,1,0)+IF(N$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f>IF(O$1&gt;=$B52,1,0)+IF(O$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f>IF(P$1&gt;=$B52,1,0)+IF(P$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f>IF(Q$1&gt;=$B52,1,0)+IF(Q$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R52">
-        <f>IF(R$1&gt;=$B52,1,0)+IF(R$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S52">
-        <f>IF(S$1&gt;=$B52,1,0)+IF(S$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T52">
-        <f>IF(T$1&gt;=$B52,1,0)+IF(T$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U52">
-        <f>IF(U$1&gt;=$B52,1,0)+IF(U$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V52">
-        <f>IF(V$1&gt;=$B52,1,0)+IF(V$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W52">
-        <f>IF(W$1&gt;=$B52,1,0)+IF(W$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X52">
-        <f>IF(X$1&gt;=$B52,1,0)+IF(X$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f>IF(Y$1&gt;=$B52,1,0)+IF(Y$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f>IF(Z$1&gt;=$B52,1,0)+IF(Z$1&gt;=$C52,1,0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>

--- a/data/legalization.xlsx
+++ b/data/legalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bathy\Documents\ecm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA272BA-164F-40F3-91F3-0371A45B6BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607FA78-9750-4C7B-8565-53212F147BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3526725-EDA2-0946-9584-1600623FA0AF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="59">
   <si>
     <t>Alabama</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>pdmp</t>
+  </si>
+  <si>
+    <t>year_dist</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B6B83-F0ED-994C-9059-7259DEDEF353}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -592,7 +595,7 @@
     <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -611,8 +614,11 @@
       <c r="F1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -631,8 +637,11 @@
       <c r="F2">
         <v>2006</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -651,8 +660,11 @@
       <c r="F3">
         <v>2011</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -671,8 +683,11 @@
       <c r="F4">
         <v>2008</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -691,8 +706,11 @@
       <c r="F5">
         <v>2013</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -711,8 +729,11 @@
       <c r="F6">
         <v>1939</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -731,8 +752,11 @@
       <c r="F7">
         <v>2007</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -751,8 +775,11 @@
       <c r="F8">
         <v>2008</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -771,8 +798,11 @@
       <c r="F9">
         <v>2012</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -791,8 +821,11 @@
       <c r="F10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -811,8 +844,11 @@
       <c r="F11">
         <v>2011</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -831,8 +867,11 @@
       <c r="F12">
         <v>2013</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -851,8 +890,11 @@
       <c r="F13">
         <v>1943</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -871,8 +913,11 @@
       <c r="F14">
         <v>1967</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -891,8 +936,11 @@
       <c r="F15">
         <v>1968</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -911,8 +959,11 @@
       <c r="F16">
         <v>1998</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -931,8 +982,11 @@
       <c r="F17">
         <v>2009</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -951,8 +1005,11 @@
       <c r="F18">
         <v>2011</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -971,8 +1028,11 @@
       <c r="F19">
         <v>1999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -991,8 +1051,11 @@
       <c r="F20">
         <v>2008</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -1011,8 +1074,11 @@
       <c r="F21">
         <v>2004</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -1031,8 +1097,11 @@
       <c r="F22">
         <v>2013</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1051,8 +1120,11 @@
       <c r="F23">
         <v>1994</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1071,8 +1143,11 @@
       <c r="F24">
         <v>1989</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -1091,8 +1166,11 @@
       <c r="F25">
         <v>2010</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
@@ -1111,8 +1189,11 @@
       <c r="F26">
         <v>2005</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
@@ -1131,8 +1212,11 @@
       <c r="F27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1151,8 +1235,11 @@
       <c r="F28">
         <v>2012</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
@@ -1171,8 +1258,11 @@
       <c r="F29">
         <v>2011</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
@@ -1191,8 +1281,11 @@
       <c r="F30">
         <v>1997</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -1211,8 +1304,11 @@
       <c r="F31">
         <v>2014</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
@@ -1231,8 +1327,11 @@
       <c r="F32">
         <v>2011</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
@@ -1251,8 +1350,11 @@
       <c r="F33">
         <v>2005</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -1271,8 +1373,11 @@
       <c r="F34">
         <v>1973</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -1291,8 +1396,11 @@
       <c r="F35">
         <v>2007</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -1311,8 +1419,11 @@
       <c r="F36">
         <v>2007</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
@@ -1331,8 +1442,11 @@
       <c r="F37">
         <v>2006</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -1351,8 +1465,11 @@
       <c r="F38">
         <v>1991</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
@@ -1371,8 +1488,11 @@
       <c r="F39">
         <v>2011</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
@@ -1391,8 +1511,11 @@
       <c r="F40">
         <v>1973</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -1411,8 +1534,11 @@
       <c r="F41">
         <v>1979</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -1431,8 +1557,11 @@
       <c r="F42">
         <v>2008</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -1451,8 +1580,11 @@
       <c r="F43">
         <v>2011</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>32</v>
       </c>
@@ -1471,8 +1603,11 @@
       <c r="F44">
         <v>2006</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -1491,8 +1626,11 @@
       <c r="F45">
         <v>1982</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -1511,8 +1649,11 @@
       <c r="F46">
         <v>1996</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
@@ -1531,8 +1672,11 @@
       <c r="F47">
         <v>2009</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>36</v>
       </c>
@@ -1551,8 +1695,11 @@
       <c r="F48">
         <v>2003</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>37</v>
       </c>
@@ -1571,8 +1718,11 @@
       <c r="F49">
         <v>2011</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -1591,8 +1741,11 @@
       <c r="F50">
         <v>1995</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
@@ -1611,8 +1764,11 @@
       <c r="F51">
         <v>2013</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>39</v>
       </c>
@@ -1629,6 +1785,9 @@
         <v>55</v>
       </c>
       <c r="F52">
+        <v>2004</v>
+      </c>
+      <c r="G52">
         <v>2004</v>
       </c>
     </row>
